--- a/data/template/raw data untuk crosscek pam baru.xlsx
+++ b/data/template/raw data untuk crosscek pam baru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icrafcifor-my.sharepoint.com/personal/d_bodro_cifor-icraf_org/Documents/dw/project R/theme 2/lusita/data/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{C9953028-729E-4230-BDED-2387E9D6C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63CEC4AE-E404-49AD-B9E4-3E4B8F0ED5D6}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{C9953028-729E-4230-BDED-2387E9D6C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AE3ADE1-B9BC-402E-8629-DB01C291D862}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{434F79F2-1D89-4230-B38A-FBCE8A0F0489}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{434F79F2-1D89-4230-B38A-FBCE8A0F0489}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="120">
   <si>
     <t>Urea</t>
   </si>
@@ -206,118 +206,196 @@
     <t>utama</t>
   </si>
   <si>
-    <t>COKLAT AF</t>
-  </si>
-  <si>
-    <t>DUKU AF</t>
-  </si>
-  <si>
-    <t>JATI AF</t>
-  </si>
-  <si>
-    <t>KARET AF</t>
-  </si>
-  <si>
-    <t>KARET AF PADI BUAH</t>
-  </si>
-  <si>
-    <t>KARET AF PADI KOPI</t>
-  </si>
-  <si>
-    <t>KAYU MANIS AF</t>
-  </si>
-  <si>
-    <t>KEBUN CAMPUR AF</t>
-  </si>
-  <si>
-    <t>KELAPA AF</t>
-  </si>
-  <si>
-    <t>KELAPA AF COKLAT</t>
-  </si>
-  <si>
-    <t>KELAPA AF JAGUNG</t>
-  </si>
-  <si>
-    <t>KELAPA SAWIT AF</t>
-  </si>
-  <si>
-    <t>KEMIRI AF</t>
-  </si>
-  <si>
-    <t>KOPI AF</t>
-  </si>
-  <si>
-    <t>LOGGING AF</t>
-  </si>
-  <si>
-    <t>SALAK AF</t>
-  </si>
-  <si>
-    <t>SENGON AF</t>
-  </si>
-  <si>
-    <t>CENGKEH</t>
-  </si>
-  <si>
-    <t>COKLAT</t>
-  </si>
-  <si>
-    <t>JAGUNG</t>
-  </si>
-  <si>
-    <t>JATI</t>
-  </si>
-  <si>
-    <t>KARET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAYU MANIS  </t>
-  </si>
-  <si>
-    <t>KELAPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KELAPA </t>
-  </si>
-  <si>
-    <t>KELAPA SAWIT</t>
-  </si>
-  <si>
-    <t>KELAPA SAWIT LARGE SCALE</t>
-  </si>
-  <si>
-    <t>KENTANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOPI   </t>
-  </si>
-  <si>
-    <t>LADA</t>
-  </si>
-  <si>
-    <t>PADI</t>
-  </si>
-  <si>
-    <t>PADI DRYLAND</t>
-  </si>
-  <si>
-    <t>PADI IRIGASI</t>
-  </si>
-  <si>
-    <t>PADI WETLAND</t>
-  </si>
-  <si>
-    <t>PINANG</t>
-  </si>
-  <si>
-    <t>SAGU</t>
-  </si>
-  <si>
-    <t>SENGON</t>
-  </si>
-  <si>
-    <t>TEH</t>
+    <t>KAPUK MODEL 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pestisida </t>
+  </si>
+  <si>
+    <t>insectisida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herbisida </t>
+  </si>
+  <si>
+    <t>Pupuk organik Padat</t>
+  </si>
+  <si>
+    <t>Rp/Kg</t>
+  </si>
+  <si>
+    <t>Pestisida nabati</t>
+  </si>
+  <si>
+    <t>Rp/Paket</t>
+  </si>
+  <si>
+    <t>obat dan vitamin (MADU)</t>
+  </si>
+  <si>
+    <t>parang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cangkul </t>
+  </si>
+  <si>
+    <t>sprayer</t>
+  </si>
+  <si>
+    <t>Karung (KAPUK)</t>
+  </si>
+  <si>
+    <t>Ajir (KAPUK)</t>
+  </si>
+  <si>
+    <t>Sabit (jambu mete)</t>
+  </si>
+  <si>
+    <t>Karung (jambu mete)</t>
+  </si>
+  <si>
+    <t>Ember (jambu mete)</t>
+  </si>
+  <si>
+    <t>Sekop (jagung)</t>
+  </si>
+  <si>
+    <t>Linggis (jagung)</t>
+  </si>
+  <si>
+    <t>Terpal  (jagung)</t>
+  </si>
+  <si>
+    <t>Ember  (jagung)</t>
+  </si>
+  <si>
+    <t>karung  (jagung)</t>
+  </si>
+  <si>
+    <t>alat pemeras madu (madu)</t>
+  </si>
+  <si>
+    <t>Ember (madu)</t>
+  </si>
+  <si>
+    <t>Jerigen  (madu)</t>
+  </si>
+  <si>
+    <t>Botol (madu)</t>
+  </si>
+  <si>
+    <t>gayung  (madu)</t>
+  </si>
+  <si>
+    <t>corong (madu)</t>
+  </si>
+  <si>
+    <t>saringan (madu)</t>
+  </si>
+  <si>
+    <t>rumah lebah (madu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rp/pohon </t>
+  </si>
+  <si>
+    <t>Rp/koloni</t>
+  </si>
+  <si>
+    <t>Jambu mete</t>
+  </si>
+  <si>
+    <t>kapuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jagung </t>
+  </si>
+  <si>
+    <t>madu</t>
+  </si>
+  <si>
+    <t>Persiapan lahan (kapuk)</t>
+  </si>
+  <si>
+    <t>Penanaman (kapuk)</t>
+  </si>
+  <si>
+    <t>Penyiangan (kapuk)</t>
+  </si>
+  <si>
+    <t>pemanenan kapuk (kapuk)</t>
+  </si>
+  <si>
+    <t>Pembuatan lubang tanam (jambu mete)</t>
+  </si>
+  <si>
+    <t>Penanaman (jambu mete)</t>
+  </si>
+  <si>
+    <t>Penyemprotan (jambu mete)</t>
+  </si>
+  <si>
+    <t>Pemeliharaan (jambu mete)</t>
+  </si>
+  <si>
+    <t>pemanenan (jambu mete)</t>
+  </si>
+  <si>
+    <t>pasca panen (jambu mete)</t>
+  </si>
+  <si>
+    <t>pembersihan lahan (jagung)</t>
+  </si>
+  <si>
+    <t>penimbunan akar (jagung)</t>
+  </si>
+  <si>
+    <t>Penanaman (jagung)</t>
+  </si>
+  <si>
+    <t>Penyemprotan (jagung)</t>
+  </si>
+  <si>
+    <t>Pemupukan (jagung)</t>
+  </si>
+  <si>
+    <t>pemanenan (jagung)</t>
+  </si>
+  <si>
+    <t>pasca panen (jagung)</t>
+  </si>
+  <si>
+    <t>Pemasangan rumah lebah (madu)</t>
+  </si>
+  <si>
+    <t>pemanenan (madu)</t>
+  </si>
+  <si>
+    <t>pasca panen (madu)</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Paket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pohon </t>
+  </si>
+  <si>
+    <t>koloni</t>
+  </si>
+  <si>
+    <t>pestisida</t>
+  </si>
+  <si>
+    <t>herbisida</t>
+  </si>
+  <si>
+    <t>insektisida</t>
+  </si>
+  <si>
+    <t>sampingan</t>
   </si>
 </sst>
 </file>
@@ -735,23 +813,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E76978D-30F8-4CCF-8060-75D8D0F1ED70}">
-  <dimension ref="A1:AG93"/>
+  <dimension ref="A1:AG187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:D66"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138:G138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="27" width="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -767,7 +845,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
@@ -781,7 +859,7 @@
         <v>7.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
@@ -792,7 +870,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="4" t="s">
         <v>50</v>
       </c>
@@ -803,7 +881,7 @@
         <v>14775</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -894,7 +972,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -985,7 +1063,7 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1154,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1245,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1258,7 +1336,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1427,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1518,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,7 +1609,7 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1622,7 +1700,7 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1713,7 +1791,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1882,7 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1895,7 +1973,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +2064,7 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2077,7 +2155,7 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -2168,7 +2246,7 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -2259,7 +2337,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2350,7 +2428,7 @@
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -2441,7 +2519,7 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2532,7 +2610,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2577,7 +2655,7 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2668,7 +2746,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2837,7 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -2850,7 +2928,7 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -2941,7 +3019,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -3032,7 +3110,7 @@
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3123,7 +3201,7 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -3214,7 +3292,7 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -3305,7 +3383,7 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3340,7 +3418,7 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -3426,7 +3504,7 @@
         <v>18047.849207142859</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3518,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3454,7 +3532,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3468,7 +3546,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3482,7 +3560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3496,7 +3574,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3510,7 +3588,7 @@
         <v>102000</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -3524,7 +3602,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -3538,7 +3616,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -3552,7 +3630,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3566,7 +3644,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3580,7 +3658,7 @@
         <v>585000</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -3594,7 +3672,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -3608,7 +3686,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -3622,7 +3700,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3636,7 +3714,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3650,7 +3728,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -3664,7 +3742,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -3678,7 +3756,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -3692,7 +3770,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -3706,7 +3784,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -3720,7 +3798,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
@@ -3734,7 +3812,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -3748,7 +3826,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -3762,7 +3840,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -3776,7 +3854,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -3790,7 +3868,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -3804,7 +3882,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -3818,7 +3896,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -3826,166 +3904,5520 @@
         <v>40</v>
       </c>
       <c r="C66">
-        <v>1570</v>
+        <v>1750</v>
       </c>
       <c r="D66">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
       <c r="B73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74">
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="9" t="s">
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" t="s">
+        <v>86</v>
+      </c>
+      <c r="C101">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>92</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>101</v>
+      </c>
+      <c r="B114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>45</v>
+      </c>
+      <c r="C115">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="C120">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C121">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" t="s">
+        <v>61</v>
+      </c>
+      <c r="C127">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>400</v>
+      </c>
+      <c r="E131">
+        <v>375</v>
+      </c>
+      <c r="F131">
+        <v>325</v>
+      </c>
+      <c r="G131">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>320</v>
+      </c>
+      <c r="E132">
+        <v>300</v>
+      </c>
+      <c r="F132">
+        <v>260</v>
+      </c>
+      <c r="G132">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" t="s">
         <v>57</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>1.6</v>
+      </c>
+      <c r="E133">
+        <v>1.5</v>
+      </c>
+      <c r="F133">
+        <v>1.3</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>1.6</v>
+      </c>
+      <c r="E134">
+        <v>1.5</v>
+      </c>
+      <c r="F134">
+        <v>1.3</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>3.2</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>2.6</v>
+      </c>
+      <c r="G135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>32</v>
+      </c>
+      <c r="B136" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" t="s">
+        <v>112</v>
+      </c>
+      <c r="D136">
+        <v>1600</v>
+      </c>
+      <c r="E136">
+        <v>1500</v>
+      </c>
+      <c r="F136">
+        <v>1300</v>
+      </c>
+      <c r="G136">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>116</v>
+      </c>
+      <c r="B137" t="s">
+        <v>62</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>3.2</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>2.6</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" t="s">
+        <v>113</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>1</v>
+      </c>
+      <c r="T138">
+        <v>1</v>
+      </c>
+      <c r="U138">
+        <v>1</v>
+      </c>
+      <c r="V138">
+        <v>1</v>
+      </c>
+      <c r="W138">
+        <v>1</v>
+      </c>
+      <c r="X138">
+        <v>1</v>
+      </c>
+      <c r="Y138">
+        <v>1</v>
+      </c>
+      <c r="Z138">
+        <v>1</v>
+      </c>
+      <c r="AA138">
+        <v>1</v>
+      </c>
+      <c r="AB138">
+        <v>1</v>
+      </c>
+      <c r="AC138">
+        <v>1</v>
+      </c>
+      <c r="AD138">
+        <v>1</v>
+      </c>
+      <c r="AE138">
+        <v>1</v>
+      </c>
+      <c r="AF138">
+        <v>1</v>
+      </c>
+      <c r="AG138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>2</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>2</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>2</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>2</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>2</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>2</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+      <c r="AF139">
+        <v>2</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>2</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <v>2</v>
+      </c>
+      <c r="Y140">
+        <v>0</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AA140">
+        <v>0</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
+        <v>2</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>0</v>
+      </c>
+      <c r="AF140">
+        <v>0</v>
+      </c>
+      <c r="AG140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>2</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>2</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>2</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>0</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>31</v>
+      </c>
+      <c r="I142">
+        <v>46</v>
+      </c>
+      <c r="J142">
+        <v>46</v>
+      </c>
+      <c r="K142">
+        <v>46</v>
+      </c>
+      <c r="L142">
+        <v>62</v>
+      </c>
+      <c r="M142">
+        <v>62</v>
+      </c>
+      <c r="N142">
+        <v>62</v>
+      </c>
+      <c r="O142">
+        <v>62</v>
+      </c>
+      <c r="P142">
+        <v>73</v>
+      </c>
+      <c r="Q142">
+        <v>73</v>
+      </c>
+      <c r="R142">
+        <v>84</v>
+      </c>
+      <c r="S142">
+        <v>84</v>
+      </c>
+      <c r="T142">
+        <v>84</v>
+      </c>
+      <c r="U142">
+        <v>84</v>
+      </c>
+      <c r="V142">
+        <v>84</v>
+      </c>
+      <c r="W142">
+        <v>84</v>
+      </c>
+      <c r="X142">
+        <v>85</v>
+      </c>
+      <c r="Y142">
+        <v>85</v>
+      </c>
+      <c r="Z142">
+        <v>85</v>
+      </c>
+      <c r="AA142">
+        <v>85</v>
+      </c>
+      <c r="AB142">
+        <v>85</v>
+      </c>
+      <c r="AC142">
+        <v>85</v>
+      </c>
+      <c r="AD142">
+        <v>85</v>
+      </c>
+      <c r="AE142">
+        <v>85</v>
+      </c>
+      <c r="AF142">
+        <v>85</v>
+      </c>
+      <c r="AG142">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>28</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>0</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <v>1</v>
+      </c>
+      <c r="Y144">
+        <v>0</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>1</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AE144">
+        <v>0</v>
+      </c>
+      <c r="AF144">
+        <v>0</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>1.89</v>
+      </c>
+      <c r="H145">
+        <v>2.3624999999999998</v>
+      </c>
+      <c r="I145">
+        <v>2.835</v>
+      </c>
+      <c r="J145">
+        <v>3.3075000000000001</v>
+      </c>
+      <c r="K145">
+        <v>3.78</v>
+      </c>
+      <c r="L145">
+        <v>4.2525000000000004</v>
+      </c>
+      <c r="M145">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="N145">
+        <v>5.1974999999999998</v>
+      </c>
+      <c r="O145">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="P145">
+        <v>7.0875000000000004</v>
+      </c>
+      <c r="Q145">
+        <v>8.0325000000000006</v>
+      </c>
+      <c r="R145">
+        <v>8.9774999999999991</v>
+      </c>
+      <c r="S145">
+        <v>9.9224999999999994</v>
+      </c>
+      <c r="T145">
+        <v>10.8675</v>
+      </c>
+      <c r="U145">
+        <v>10.395</v>
+      </c>
+      <c r="V145">
+        <v>9.9224999999999994</v>
+      </c>
+      <c r="W145">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="X145">
+        <v>8.9774999999999991</v>
+      </c>
+      <c r="Y145">
+        <v>8.5050000000000008</v>
+      </c>
+      <c r="Z145">
+        <v>8.0325000000000006</v>
+      </c>
+      <c r="AA145">
+        <v>7.2765000000000013</v>
+      </c>
+      <c r="AB145">
+        <v>6.5205000000000011</v>
+      </c>
+      <c r="AC145">
+        <v>5.7645000000000008</v>
+      </c>
+      <c r="AD145">
+        <v>5.0085000000000006</v>
+      </c>
+      <c r="AE145">
+        <v>4.5360000000000005</v>
+      </c>
+      <c r="AF145">
+        <v>4.0635000000000012</v>
+      </c>
+      <c r="AG145">
+        <v>3.5910000000000006</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" t="s">
+        <v>72</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>1</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>1</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AE146">
+        <v>0</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" t="s">
+        <v>73</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+      <c r="AC148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>10</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151">
+        <v>201.6</v>
+      </c>
+      <c r="E151">
+        <v>189</v>
+      </c>
+      <c r="F151">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="G151">
+        <v>126</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" t="s">
+        <v>78</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>1</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>1</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+      <c r="AB152">
+        <v>1</v>
+      </c>
+      <c r="AC152">
+        <v>0</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AE152">
+        <v>0</v>
+      </c>
+      <c r="AF152">
+        <v>0</v>
+      </c>
+      <c r="AG152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" t="s">
+        <v>79</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>2</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>2</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>2</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>2</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+      <c r="AB153">
+        <v>2</v>
+      </c>
+      <c r="AC153">
+        <v>0</v>
+      </c>
+      <c r="AD153">
+        <v>2</v>
+      </c>
+      <c r="AE153">
+        <v>0</v>
+      </c>
+      <c r="AF153">
+        <v>2</v>
+      </c>
+      <c r="AG153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" t="s">
+        <v>80</v>
+      </c>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>5</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>5</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <v>5</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>5</v>
+      </c>
+      <c r="AC154">
+        <v>0</v>
+      </c>
+      <c r="AD154">
+        <v>0</v>
+      </c>
+      <c r="AE154">
+        <v>0</v>
+      </c>
+      <c r="AF154">
+        <v>0</v>
+      </c>
+      <c r="AG154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>672</v>
+      </c>
+      <c r="I155">
+        <v>672</v>
+      </c>
+      <c r="J155">
+        <v>672</v>
+      </c>
+      <c r="K155">
+        <v>672</v>
+      </c>
+      <c r="L155">
+        <v>672</v>
+      </c>
+      <c r="M155">
+        <v>672</v>
+      </c>
+      <c r="N155">
+        <v>672</v>
+      </c>
+      <c r="O155">
+        <v>672</v>
+      </c>
+      <c r="P155">
+        <v>672</v>
+      </c>
+      <c r="Q155">
+        <v>672</v>
+      </c>
+      <c r="R155">
+        <v>672</v>
+      </c>
+      <c r="S155">
+        <v>672</v>
+      </c>
+      <c r="T155">
+        <v>672</v>
+      </c>
+      <c r="U155">
+        <v>672</v>
+      </c>
+      <c r="V155">
+        <v>672</v>
+      </c>
+      <c r="W155">
+        <v>672</v>
+      </c>
+      <c r="X155">
+        <v>672</v>
+      </c>
+      <c r="Y155">
+        <v>672</v>
+      </c>
+      <c r="Z155">
+        <v>672</v>
+      </c>
+      <c r="AA155">
+        <v>672</v>
+      </c>
+      <c r="AB155">
+        <v>672</v>
+      </c>
+      <c r="AC155">
+        <v>672</v>
+      </c>
+      <c r="AD155">
+        <v>672</v>
+      </c>
+      <c r="AE155">
+        <v>672</v>
+      </c>
+      <c r="AF155">
+        <v>672</v>
+      </c>
+      <c r="AG155">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>2</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>2</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>2</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>2</v>
+      </c>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+      <c r="AD156">
+        <v>2</v>
+      </c>
+      <c r="AE156">
+        <v>0</v>
+      </c>
+      <c r="AF156">
+        <v>2</v>
+      </c>
+      <c r="AG156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" t="s">
+        <v>83</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>2</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>2</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>2</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>2</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>2</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>2</v>
+      </c>
+      <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
+        <v>2</v>
+      </c>
+      <c r="AE157">
+        <v>0</v>
+      </c>
+      <c r="AF157">
+        <v>2</v>
+      </c>
+      <c r="AG157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" t="s">
+        <v>84</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>2</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>2</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>2</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>2</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>2</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>2</v>
+      </c>
+      <c r="AC158">
+        <v>0</v>
+      </c>
+      <c r="AD158">
+        <v>2</v>
+      </c>
+      <c r="AE158">
+        <v>0</v>
+      </c>
+      <c r="AF158">
+        <v>2</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>33</v>
+      </c>
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>14</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>14</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>14</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>14</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>14</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>0</v>
+      </c>
+      <c r="AF159">
+        <v>0</v>
+      </c>
+      <c r="AG159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>34</v>
+      </c>
+      <c r="B160" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" t="s">
+        <v>114</v>
+      </c>
+      <c r="D160">
+        <v>63</v>
+      </c>
+      <c r="E160">
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" t="s">
+        <v>114</v>
+      </c>
+      <c r="D161">
+        <v>28</v>
+      </c>
+      <c r="E161">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>32</v>
+      </c>
+      <c r="E162">
+        <v>30</v>
+      </c>
+      <c r="F162">
+        <v>26</v>
+      </c>
+      <c r="G162">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>34</v>
+      </c>
+      <c r="B163" t="s">
+        <v>91</v>
+      </c>
+      <c r="C163" t="s">
+        <v>115</v>
+      </c>
+      <c r="G163">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>35</v>
+      </c>
+      <c r="B164" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
         <v>60</v>
       </c>
-      <c r="D77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>63</v>
-      </c>
-      <c r="D80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>67</v>
-      </c>
-      <c r="D84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>71</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+      <c r="AC164">
+        <v>0</v>
+      </c>
+      <c r="AD164">
+        <v>0</v>
+      </c>
+      <c r="AE164">
+        <v>0</v>
+      </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
+      <c r="AG164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" t="s">
+        <v>93</v>
+      </c>
+      <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165">
+        <v>1.68</v>
+      </c>
+      <c r="E165">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+      <c r="V165">
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+      <c r="AC165">
+        <v>0</v>
+      </c>
+      <c r="AD165">
+        <v>0</v>
+      </c>
+      <c r="AE165">
+        <v>0</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>35</v>
+      </c>
+      <c r="B166" t="s">
+        <v>94</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="H166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="I166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="J166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="K166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="L166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="M166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="N166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="O166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="P166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="Q166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="R166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="S166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="T166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="U166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="V166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="W166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="X166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="Y166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="Z166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AA166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AB166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AC166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AD166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AE166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AF166">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AG166">
+        <v>0.98000000000000009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>3.5</v>
+      </c>
+      <c r="I167">
+        <v>3.5</v>
+      </c>
+      <c r="J167">
+        <v>3.5</v>
+      </c>
+      <c r="K167">
+        <v>3.5</v>
+      </c>
+      <c r="L167">
+        <v>3.5</v>
+      </c>
+      <c r="M167">
+        <v>3.5</v>
+      </c>
+      <c r="N167">
+        <v>7</v>
+      </c>
+      <c r="O167">
+        <v>7</v>
+      </c>
+      <c r="P167">
+        <v>7</v>
+      </c>
+      <c r="Q167">
+        <v>7</v>
+      </c>
+      <c r="R167">
+        <v>7</v>
+      </c>
+      <c r="S167">
+        <v>7</v>
+      </c>
+      <c r="T167">
+        <v>7</v>
+      </c>
+      <c r="U167">
+        <v>7</v>
+      </c>
+      <c r="V167">
+        <v>7</v>
+      </c>
+      <c r="W167">
+        <v>7</v>
+      </c>
+      <c r="X167">
+        <v>7</v>
+      </c>
+      <c r="Y167">
+        <v>7</v>
+      </c>
+      <c r="Z167">
+        <v>7</v>
+      </c>
+      <c r="AA167">
+        <v>7</v>
+      </c>
+      <c r="AB167">
+        <v>7</v>
+      </c>
+      <c r="AC167">
+        <v>7</v>
+      </c>
+      <c r="AD167">
+        <v>7</v>
+      </c>
+      <c r="AE167">
+        <v>7</v>
+      </c>
+      <c r="AF167">
+        <v>7</v>
+      </c>
+      <c r="AG167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168">
+        <v>1.89</v>
+      </c>
+      <c r="E168">
+        <v>1.89</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>0</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AA168">
+        <v>0</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>35</v>
+      </c>
+      <c r="B169" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169">
+        <v>1.89</v>
+      </c>
+      <c r="E169">
+        <v>1.89</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>0</v>
+      </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>35</v>
+      </c>
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>1.26</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>0</v>
+      </c>
+      <c r="AF170">
+        <v>0</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" t="s">
+        <v>99</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171">
+        <v>1.764</v>
+      </c>
+      <c r="E171">
+        <v>1.764</v>
+      </c>
+      <c r="F171">
+        <v>1.764</v>
+      </c>
+      <c r="G171">
+        <v>1.764</v>
+      </c>
+      <c r="H171">
+        <v>1.764</v>
+      </c>
+      <c r="I171">
+        <v>1.764</v>
+      </c>
+      <c r="J171">
+        <v>1.764</v>
+      </c>
+      <c r="K171">
+        <v>1.764</v>
+      </c>
+      <c r="L171">
+        <v>1.764</v>
+      </c>
+      <c r="M171">
+        <v>1.764</v>
+      </c>
+      <c r="N171">
+        <v>1.764</v>
+      </c>
+      <c r="O171">
+        <v>1.764</v>
+      </c>
+      <c r="P171">
+        <v>1.764</v>
+      </c>
+      <c r="Q171">
+        <v>1.764</v>
+      </c>
+      <c r="R171">
+        <v>1.764</v>
+      </c>
+      <c r="S171">
+        <v>1.764</v>
+      </c>
+      <c r="T171">
+        <v>1.764</v>
+      </c>
+      <c r="U171">
+        <v>1.764</v>
+      </c>
+      <c r="V171">
+        <v>1.764</v>
+      </c>
+      <c r="W171">
+        <v>1.764</v>
+      </c>
+      <c r="X171">
+        <v>1.764</v>
+      </c>
+      <c r="Y171">
+        <v>1.764</v>
+      </c>
+      <c r="Z171">
+        <v>1.764</v>
+      </c>
+      <c r="AA171">
+        <v>1.764</v>
+      </c>
+      <c r="AB171">
+        <v>1.764</v>
+      </c>
+      <c r="AC171">
+        <v>1.764</v>
+      </c>
+      <c r="AD171">
+        <v>1.764</v>
+      </c>
+      <c r="AE171">
+        <v>1.764</v>
+      </c>
+      <c r="AF171">
+        <v>1.764</v>
+      </c>
+      <c r="AG171">
+        <v>1.764</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>35</v>
+      </c>
+      <c r="B172" t="s">
+        <v>100</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>5.04</v>
+      </c>
+      <c r="H172">
+        <v>5.04</v>
+      </c>
+      <c r="I172">
+        <v>5.04</v>
+      </c>
+      <c r="J172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="K172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="L172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="M172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="N172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="O172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="P172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="Q172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="R172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="S172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="T172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="U172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="V172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="W172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="X172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="Y172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="Z172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="AA172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="AB172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="AC172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="AD172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="AE172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="AF172">
+        <v>5.7960000000000003</v>
+      </c>
+      <c r="AG172">
+        <v>5.7960000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>35</v>
+      </c>
+      <c r="B173" t="s">
+        <v>101</v>
+      </c>
+      <c r="C173" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+      <c r="AC173">
+        <v>0</v>
+      </c>
+      <c r="AD173">
+        <v>0</v>
+      </c>
+      <c r="AE173">
+        <v>0</v>
+      </c>
+      <c r="AF173">
+        <v>0</v>
+      </c>
+      <c r="AG173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>35</v>
+      </c>
+      <c r="B174" t="s">
+        <v>102</v>
+      </c>
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>11.25</v>
+      </c>
+      <c r="F174">
+        <v>9.75</v>
+      </c>
+      <c r="G174">
+        <v>7.5</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>0</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+      <c r="AC174">
+        <v>0</v>
+      </c>
+      <c r="AD174">
+        <v>0</v>
+      </c>
+      <c r="AE174">
+        <v>0</v>
+      </c>
+      <c r="AF174">
+        <v>0</v>
+      </c>
+      <c r="AG174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>103</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175">
+        <v>12</v>
+      </c>
+      <c r="E175">
+        <v>11.25</v>
+      </c>
+      <c r="F175">
+        <v>9.75</v>
+      </c>
+      <c r="G175">
+        <v>7.5</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <v>0</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>0</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>0</v>
+      </c>
+      <c r="AD175">
+        <v>0</v>
+      </c>
+      <c r="AE175">
+        <v>0</v>
+      </c>
+      <c r="AF175">
+        <v>0</v>
+      </c>
+      <c r="AG175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>35</v>
+      </c>
+      <c r="B176" t="s">
+        <v>104</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="E176">
+        <v>21</v>
+      </c>
+      <c r="F176">
+        <v>18.2</v>
+      </c>
+      <c r="G176">
+        <v>14</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>0</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+      <c r="AC176">
+        <v>0</v>
+      </c>
+      <c r="AD176">
+        <v>0</v>
+      </c>
+      <c r="AE176">
+        <v>0</v>
+      </c>
+      <c r="AF176">
+        <v>0</v>
+      </c>
+      <c r="AG176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" t="s">
+        <v>105</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="E177">
+        <v>5.25</v>
+      </c>
+      <c r="F177">
+        <v>4.55</v>
+      </c>
+      <c r="G177">
+        <v>3.5</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B178" t="s">
+        <v>106</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="E178">
+        <v>5.25</v>
+      </c>
+      <c r="F178">
+        <v>4.55</v>
+      </c>
+      <c r="G178">
+        <v>3.5</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>0</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>0</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
+      <c r="AD178">
+        <v>0</v>
+      </c>
+      <c r="AE178">
+        <v>0</v>
+      </c>
+      <c r="AF178">
+        <v>0</v>
+      </c>
+      <c r="AG178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" t="s">
+        <v>107</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179">
+        <v>48</v>
+      </c>
+      <c r="E179">
+        <v>45</v>
+      </c>
+      <c r="F179">
+        <v>39</v>
+      </c>
+      <c r="G179">
+        <v>30</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>0</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AA179">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>0</v>
+      </c>
+      <c r="AD179">
+        <v>0</v>
+      </c>
+      <c r="AE179">
+        <v>0</v>
+      </c>
+      <c r="AF179">
+        <v>0</v>
+      </c>
+      <c r="AG179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180">
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="E180">
+        <v>4.5</v>
+      </c>
+      <c r="F180">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>0</v>
+      </c>
+      <c r="AC180">
+        <v>0</v>
+      </c>
+      <c r="AD180">
+        <v>0</v>
+      </c>
+      <c r="AE180">
+        <v>0</v>
+      </c>
+      <c r="AF180">
+        <v>0</v>
+      </c>
+      <c r="AG180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181" t="s">
+        <v>109</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>5</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>5</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>5</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>5</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>5</v>
+      </c>
+      <c r="AB181">
+        <v>0</v>
+      </c>
+      <c r="AC181">
+        <v>0</v>
+      </c>
+      <c r="AD181">
+        <v>0</v>
+      </c>
+      <c r="AE181">
+        <v>0</v>
+      </c>
+      <c r="AF181">
+        <v>5</v>
+      </c>
+      <c r="AG181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>35</v>
+      </c>
+      <c r="B182" t="s">
+        <v>110</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>4</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182">
+        <v>4</v>
+      </c>
+      <c r="K182">
+        <v>4</v>
+      </c>
+      <c r="L182">
+        <v>4</v>
+      </c>
+      <c r="M182">
+        <v>4</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182">
+        <v>4</v>
+      </c>
+      <c r="P182">
+        <v>4</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>4</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>4</v>
+      </c>
+      <c r="U182">
+        <v>4</v>
+      </c>
+      <c r="V182">
+        <v>4</v>
+      </c>
+      <c r="W182">
+        <v>4</v>
+      </c>
+      <c r="X182">
+        <v>4</v>
+      </c>
+      <c r="Y182">
+        <v>4</v>
+      </c>
+      <c r="Z182">
+        <v>4</v>
+      </c>
+      <c r="AA182">
+        <v>4</v>
+      </c>
+      <c r="AB182">
+        <v>4</v>
+      </c>
+      <c r="AC182">
+        <v>4</v>
+      </c>
+      <c r="AD182">
+        <v>4</v>
+      </c>
+      <c r="AE182">
+        <v>4</v>
+      </c>
+      <c r="AF182">
+        <v>4</v>
+      </c>
+      <c r="AG182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>35</v>
+      </c>
+      <c r="B183" t="s">
+        <v>111</v>
+      </c>
+      <c r="C183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183">
+        <v>3</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>3</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183">
+        <v>3</v>
+      </c>
+      <c r="P183">
+        <v>3</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>3</v>
+      </c>
+      <c r="T183">
+        <v>3</v>
+      </c>
+      <c r="U183">
+        <v>3</v>
+      </c>
+      <c r="V183">
+        <v>3</v>
+      </c>
+      <c r="W183">
+        <v>3</v>
+      </c>
+      <c r="X183">
+        <v>3</v>
+      </c>
+      <c r="Y183">
+        <v>3</v>
+      </c>
+      <c r="Z183">
+        <v>3</v>
+      </c>
+      <c r="AA183">
+        <v>3</v>
+      </c>
+      <c r="AB183">
+        <v>3</v>
+      </c>
+      <c r="AC183">
+        <v>3</v>
+      </c>
+      <c r="AD183">
+        <v>3</v>
+      </c>
+      <c r="AE183">
+        <v>3</v>
+      </c>
+      <c r="AF183">
+        <v>3</v>
+      </c>
+      <c r="AG183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B184" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>72</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C184" t="s">
+        <v>112</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>94.5</v>
+      </c>
+      <c r="H184">
+        <v>118.125</v>
+      </c>
+      <c r="I184">
+        <v>141.75</v>
+      </c>
+      <c r="J184">
+        <v>165.375</v>
+      </c>
+      <c r="K184">
+        <v>189</v>
+      </c>
+      <c r="L184">
+        <v>212.625</v>
+      </c>
+      <c r="M184">
+        <v>236.25</v>
+      </c>
+      <c r="N184">
+        <v>259.875</v>
+      </c>
+      <c r="O184">
+        <v>307.125</v>
+      </c>
+      <c r="P184">
+        <v>354.375</v>
+      </c>
+      <c r="Q184">
+        <v>401.625</v>
+      </c>
+      <c r="R184">
+        <v>448.875</v>
+      </c>
+      <c r="S184">
+        <v>496.125</v>
+      </c>
+      <c r="T184">
+        <v>543.375</v>
+      </c>
+      <c r="U184">
+        <v>519.75</v>
+      </c>
+      <c r="V184">
+        <v>496.125</v>
+      </c>
+      <c r="W184">
+        <v>472.5</v>
+      </c>
+      <c r="X184">
+        <v>448.875</v>
+      </c>
+      <c r="Y184">
+        <v>425.25</v>
+      </c>
+      <c r="Z184">
+        <v>401.625</v>
+      </c>
+      <c r="AA184">
+        <v>363.82500000000005</v>
+      </c>
+      <c r="AB184">
+        <v>326.02500000000003</v>
+      </c>
+      <c r="AC184">
+        <v>288.22500000000002</v>
+      </c>
+      <c r="AD184">
+        <v>250.42500000000004</v>
+      </c>
+      <c r="AE184">
+        <v>226.80000000000004</v>
+      </c>
+      <c r="AF184">
+        <v>203.17500000000004</v>
+      </c>
+      <c r="AG184">
+        <v>179.55000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>119</v>
+      </c>
+      <c r="B185" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
+      <c r="C185" t="s">
+        <v>112</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>366.13866314846564</v>
+      </c>
+      <c r="I185">
+        <v>549.20799472269846</v>
+      </c>
+      <c r="J185">
+        <v>549.20799472269846</v>
+      </c>
+      <c r="K185">
+        <v>549.20799472269846</v>
+      </c>
+      <c r="L185">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="M185">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="N185">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="O185">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="P185">
+        <v>866.55445126487166</v>
+      </c>
+      <c r="Q185">
+        <v>866.55445126487166</v>
+      </c>
+      <c r="R185">
+        <v>1000.8315762328122</v>
+      </c>
+      <c r="S185">
+        <v>1002.1065744316124</v>
+      </c>
+      <c r="T185">
+        <v>1003.3815726304125</v>
+      </c>
+      <c r="U185">
+        <v>1004.6565708292128</v>
+      </c>
+      <c r="V185">
+        <v>1005.9315690280127</v>
+      </c>
+      <c r="W185">
+        <v>1007.206567226813</v>
+      </c>
+      <c r="X185">
+        <v>1008.4815654256133</v>
+      </c>
+      <c r="Y185">
+        <v>1009.7565636244134</v>
+      </c>
+      <c r="Z185">
+        <v>1011.0315618232135</v>
+      </c>
+      <c r="AA185">
+        <v>1012.3065600220139</v>
+      </c>
+      <c r="AB185">
+        <v>1013.581558220814</v>
+      </c>
+      <c r="AC185">
+        <v>1014.8565564196142</v>
+      </c>
+      <c r="AD185">
+        <v>1016.1315546184143</v>
+      </c>
+      <c r="AE185">
+        <v>1017.4065528172146</v>
+      </c>
+      <c r="AF185">
+        <v>1018.6815510160146</v>
+      </c>
+      <c r="AG185">
+        <v>1019.9565492148149</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>119</v>
+      </c>
+      <c r="B186" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
+      <c r="C186" t="s">
+        <v>112</v>
+      </c>
+      <c r="D186">
+        <v>10080</v>
+      </c>
+      <c r="E186">
+        <v>9450</v>
+      </c>
+      <c r="F186">
+        <v>8190</v>
+      </c>
+      <c r="G186">
+        <v>6300</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <v>0</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
+        <v>0</v>
+      </c>
+      <c r="AD186">
+        <v>0</v>
+      </c>
+      <c r="AE186">
+        <v>0</v>
+      </c>
+      <c r="AF186">
+        <v>0</v>
+      </c>
+      <c r="AG186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>119</v>
+      </c>
+      <c r="B187" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>93</v>
+      <c r="C187" t="s">
+        <v>112</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>168</v>
+      </c>
+      <c r="I187">
+        <v>168</v>
+      </c>
+      <c r="J187">
+        <v>168</v>
+      </c>
+      <c r="K187">
+        <v>168</v>
+      </c>
+      <c r="L187">
+        <v>168</v>
+      </c>
+      <c r="M187">
+        <v>168</v>
+      </c>
+      <c r="N187">
+        <v>168</v>
+      </c>
+      <c r="O187">
+        <v>168</v>
+      </c>
+      <c r="P187">
+        <v>168</v>
+      </c>
+      <c r="Q187">
+        <v>168</v>
+      </c>
+      <c r="R187">
+        <v>168</v>
+      </c>
+      <c r="S187">
+        <v>168</v>
+      </c>
+      <c r="T187">
+        <v>168</v>
+      </c>
+      <c r="U187">
+        <v>168</v>
+      </c>
+      <c r="V187">
+        <v>168</v>
+      </c>
+      <c r="W187">
+        <v>168</v>
+      </c>
+      <c r="X187">
+        <v>168</v>
+      </c>
+      <c r="Y187">
+        <v>168</v>
+      </c>
+      <c r="Z187">
+        <v>168</v>
+      </c>
+      <c r="AA187">
+        <v>168</v>
+      </c>
+      <c r="AB187">
+        <v>168</v>
+      </c>
+      <c r="AC187">
+        <v>168</v>
+      </c>
+      <c r="AD187">
+        <v>168</v>
+      </c>
+      <c r="AE187">
+        <v>168</v>
+      </c>
+      <c r="AF187">
+        <v>168</v>
+      </c>
+      <c r="AG187">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/template/raw data untuk crosscek pam baru.xlsx
+++ b/data/template/raw data untuk crosscek pam baru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icrafcifor-my.sharepoint.com/personal/d_bodro_cifor-icraf_org/Documents/dw/project R/theme 2/lusita/data/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icrafcifor-my.sharepoint.com/personal/d_bodro_cifor-icraf_org/Documents/Documents/GitHub/LUSITA/data/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{C9953028-729E-4230-BDED-2387E9D6C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AE3ADE1-B9BC-402E-8629-DB01C291D862}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{C9953028-729E-4230-BDED-2387E9D6C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460D48CE-CABD-4BDD-90ED-6F0420A6767D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{434F79F2-1D89-4230-B38A-FBCE8A0F0489}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{434F79F2-1D89-4230-B38A-FBCE8A0F0489}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="155">
   <si>
     <t>Urea</t>
   </si>
@@ -396,6 +396,111 @@
   </si>
   <si>
     <t>sampingan</t>
+  </si>
+  <si>
+    <t>Cengkeh Monokultur</t>
+  </si>
+  <si>
+    <t>Tahun Analisis</t>
+  </si>
+  <si>
+    <t>Tanaman Utama</t>
+  </si>
+  <si>
+    <t>Kapuk</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
+    <t>Agroforestry</t>
+  </si>
+  <si>
+    <t>Lokasi</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Luas pengelolaan</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>Siklus Tanaman Utama</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Hasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV (Rp/ha) </t>
+  </si>
+  <si>
+    <t>NPV(USD/ha)</t>
+  </si>
+  <si>
+    <t>EAE (Rp/ha)</t>
+  </si>
+  <si>
+    <t>Return to Labor (Rp/ha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga Komoditas </t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Rp Per Unit</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Gross Benefit Cost Ratio (Gross BCR)</t>
+  </si>
+  <si>
+    <t>Biaya Pembangunan/Investasi (tahun pertama saja, Rp/Ha)</t>
+  </si>
+  <si>
+    <t>Labor Cost (selama 1 siklus)</t>
+  </si>
+  <si>
+    <t>Non Labor Cost (selama 1 siklus) (Rp/Ha)</t>
+  </si>
+  <si>
+    <t>Kebutuhan TK (1tahun pertama saja, HOK/Ha)</t>
+  </si>
+  <si>
+    <t>Biaya investasi (hingga awal panen, Rp/Ha)</t>
+  </si>
+  <si>
+    <t>Kebutuhan TK (hingga awal panen, HOK/Ha)</t>
+  </si>
+  <si>
+    <t>Komoditas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah Kg Bibit/Ha/musim tanam </t>
+  </si>
+  <si>
+    <t>Jarak Tanam</t>
+  </si>
+  <si>
+    <t>Profitability Index (PI)</t>
+  </si>
+  <si>
+    <t>10x10 m</t>
+  </si>
+  <si>
+    <t>15x15 m</t>
+  </si>
+  <si>
+    <t>100x20 cm</t>
   </si>
 </sst>
 </file>
@@ -813,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E76978D-30F8-4CCF-8060-75D8D0F1ED70}">
-  <dimension ref="A1:AG187"/>
+  <dimension ref="A1:AG189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138:G138"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C124" sqref="B72:C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,7 +930,10 @@
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="27" width="12" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3896,7 +4004,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -3910,12 +4018,15 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3925,8 +4036,14 @@
       <c r="C72">
         <v>3800</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -3936,8 +4053,14 @@
       <c r="C73">
         <v>3000</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>122</v>
+      </c>
+      <c r="G73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>57</v>
       </c>
@@ -3947,8 +4070,14 @@
       <c r="C74">
         <v>123500</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>124</v>
+      </c>
+      <c r="G74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>58</v>
       </c>
@@ -3958,8 +4087,14 @@
       <c r="C75">
         <v>80000</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>59</v>
       </c>
@@ -3969,8 +4104,17 @@
       <c r="C76">
         <v>80000</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -3980,8 +4124,17 @@
       <c r="C77">
         <v>1000</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>130</v>
+      </c>
+      <c r="G77">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -3992,7 +4145,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -4002,8 +4155,14 @@
       <c r="C79">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>65</v>
       </c>
@@ -4013,8 +4172,23 @@
       <c r="C80">
         <v>125000</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>133</v>
+      </c>
+      <c r="K80" s="9">
+        <v>136865428.80637375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -4024,8 +4198,23 @@
       <c r="C81">
         <v>105000</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81">
+        <v>120000</v>
+      </c>
+      <c r="J81" t="s">
+        <v>134</v>
+      </c>
+      <c r="K81" s="9">
+        <v>8662.3689117958074</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -4035,8 +4224,23 @@
       <c r="C82">
         <v>600000</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s">
+        <v>51</v>
+      </c>
+      <c r="H82">
+        <v>15800</v>
+      </c>
+      <c r="J82" t="s">
+        <v>135</v>
+      </c>
+      <c r="K82" s="9">
+        <v>11140496.274771284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -4046,8 +4250,14 @@
       <c r="C83">
         <v>3000</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J83" t="s">
+        <v>136</v>
+      </c>
+      <c r="K83" s="9">
+        <v>364689.34120879852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -4057,8 +4267,23 @@
       <c r="C84">
         <v>1000</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>137</v>
+      </c>
+      <c r="G84" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J84" t="s">
+        <v>140</v>
+      </c>
+      <c r="K84" s="9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -4068,8 +4293,23 @@
       <c r="C85">
         <v>80000</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85">
+        <v>13250</v>
+      </c>
+      <c r="J85" t="s">
+        <v>141</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1.6628644115903373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -4079,8 +4319,23 @@
       <c r="C86">
         <v>3000</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s">
+        <v>112</v>
+      </c>
+      <c r="H86">
+        <v>2000</v>
+      </c>
+      <c r="J86" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" s="9">
+        <v>35520280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -4090,8 +4345,23 @@
       <c r="C87">
         <v>25000</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>90</v>
+      </c>
+      <c r="G87" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87">
+        <v>3900</v>
+      </c>
+      <c r="J87" t="s">
+        <v>143</v>
+      </c>
+      <c r="K87" s="9">
+        <v>124544640</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>73</v>
       </c>
@@ -4101,8 +4371,23 @@
       <c r="C88">
         <v>75500</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
+      <c r="H88">
+        <v>120000</v>
+      </c>
+      <c r="J88" t="s">
+        <v>144</v>
+      </c>
+      <c r="K88" s="9">
+        <v>311402069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -4112,8 +4397,14 @@
       <c r="C89">
         <v>115000</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>145</v>
+      </c>
+      <c r="K89" s="9">
+        <v>165.624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -4123,8 +4414,14 @@
       <c r="C90">
         <v>180000</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>146</v>
+      </c>
+      <c r="K90" s="9">
+        <v>129923117.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -4134,8 +4431,14 @@
       <c r="C91">
         <v>25000</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J91" t="s">
+        <v>147</v>
+      </c>
+      <c r="K91" s="9">
+        <v>662.23199999999974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -4145,8 +4448,23 @@
       <c r="C92">
         <v>3000</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>148</v>
+      </c>
+      <c r="G92" t="s">
+        <v>149</v>
+      </c>
+      <c r="H92" t="s">
+        <v>150</v>
+      </c>
+      <c r="J92" t="s">
+        <v>151</v>
+      </c>
+      <c r="K92" s="9">
+        <v>10.702156633259371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4474,17 @@
       <c r="C93">
         <v>9000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>88</v>
+      </c>
+      <c r="G93">
+        <v>63</v>
+      </c>
+      <c r="H93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -4167,8 +4494,17 @@
       <c r="C94">
         <v>25000</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94">
+        <v>28</v>
+      </c>
+      <c r="H94" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -4178,8 +4514,17 @@
       <c r="C95">
         <v>75000</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -4188,6 +4533,12 @@
       </c>
       <c r="C96">
         <v>4000</v>
+      </c>
+      <c r="F96" t="s">
+        <v>91</v>
+      </c>
+      <c r="G96">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -4498,71 +4849,48 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>88</v>
-      </c>
-      <c r="B125" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125">
-        <v>13250</v>
-      </c>
-    </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B126" t="s">
         <v>61</v>
       </c>
       <c r="C126">
-        <v>2000</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
         <v>61</v>
       </c>
       <c r="C127">
-        <v>3900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B128" t="s">
         <v>61</v>
       </c>
       <c r="C128">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" t="s">
+        <v>61</v>
+      </c>
+      <c r="C129">
         <v>120000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>32</v>
-      </c>
-      <c r="B131" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>400</v>
-      </c>
-      <c r="E131">
-        <v>375</v>
-      </c>
-      <c r="F131">
-        <v>325</v>
-      </c>
-      <c r="G131">
-        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.3">
@@ -4570,53 +4898,53 @@
         <v>32</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="E132">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="F132">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="G132">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>1.6</v>
+        <v>320</v>
       </c>
       <c r="E133">
-        <v>1.5</v>
+        <v>300</v>
       </c>
       <c r="F133">
-        <v>1.3</v>
+        <v>260</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B134" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
@@ -4636,273 +4964,195 @@
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B135" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
       <c r="D135">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F135">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B136" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C136" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D136">
-        <v>1600</v>
+        <v>3.2</v>
       </c>
       <c r="E136">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>1300</v>
+        <v>2.6</v>
       </c>
       <c r="G136">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D137">
-        <v>3.2</v>
+        <v>1600</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>1500</v>
       </c>
       <c r="F137">
-        <v>2.6</v>
+        <v>1300</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C138" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c r="J138">
-        <v>1</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>1</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-      <c r="P138">
-        <v>1</v>
-      </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
-      <c r="R138">
-        <v>1</v>
-      </c>
-      <c r="S138">
-        <v>1</v>
-      </c>
-      <c r="T138">
-        <v>1</v>
-      </c>
-      <c r="U138">
-        <v>1</v>
-      </c>
-      <c r="V138">
-        <v>1</v>
-      </c>
-      <c r="W138">
-        <v>1</v>
-      </c>
-      <c r="X138">
-        <v>1</v>
-      </c>
-      <c r="Y138">
-        <v>1</v>
-      </c>
-      <c r="Z138">
-        <v>1</v>
-      </c>
-      <c r="AA138">
-        <v>1</v>
-      </c>
-      <c r="AB138">
-        <v>1</v>
-      </c>
-      <c r="AC138">
-        <v>1</v>
-      </c>
-      <c r="AD138">
-        <v>1</v>
-      </c>
-      <c r="AE138">
-        <v>1</v>
-      </c>
-      <c r="AF138">
-        <v>1</v>
-      </c>
-      <c r="AG138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.3">
@@ -4910,7 +5160,7 @@
         <v>33</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
@@ -4922,25 +5172,25 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
         <v>2</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
       <c r="K140">
         <v>0</v>
       </c>
       <c r="L140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -4952,25 +5202,25 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q140">
         <v>0</v>
       </c>
       <c r="R140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S140">
+        <v>0</v>
+      </c>
+      <c r="T140">
         <v>2</v>
       </c>
-      <c r="T140">
-        <v>0</v>
-      </c>
       <c r="U140">
         <v>0</v>
       </c>
       <c r="V140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -4982,25 +5232,25 @@
         <v>0</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA140">
         <v>0</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
         <v>2</v>
       </c>
-      <c r="AD140">
-        <v>0</v>
-      </c>
       <c r="AE140">
         <v>0</v>
       </c>
       <c r="AF140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG140">
         <v>0</v>
@@ -5011,7 +5261,7 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
@@ -5112,13 +5362,13 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5130,82 +5380,82 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="J142">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K142">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="M142">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N142">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="O142">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="P142">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="S142">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="U142">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="V142">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="W142">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X142">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="Y142">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Z142">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB142">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="AD142">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AE142">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF142">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AG142">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.3">
@@ -5213,16 +5463,16 @@
         <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
       </c>
       <c r="D143">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -5231,82 +5481,82 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J143">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L143">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N143">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="O143">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="P143">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R143">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S143">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="T143">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="U143">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="V143">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="W143">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="X143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AC143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AD143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AE143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF143">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG143">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.3">
@@ -5314,16 +5564,16 @@
         <v>33</v>
       </c>
       <c r="B144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -5335,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -5350,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -5365,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="S144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T144">
         <v>0</v>
@@ -5380,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="X144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y144">
         <v>0</v>
@@ -5395,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="AC144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD144">
         <v>0</v>
@@ -5415,13 +5665,13 @@
         <v>33</v>
       </c>
       <c r="B145" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5430,85 +5680,85 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>2.3624999999999998</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2.835</v>
+        <v>1</v>
       </c>
       <c r="J145">
-        <v>3.3075000000000001</v>
+        <v>0</v>
       </c>
       <c r="K145">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="L145">
-        <v>4.2525000000000004</v>
+        <v>0</v>
       </c>
       <c r="M145">
-        <v>4.7249999999999996</v>
+        <v>0</v>
       </c>
       <c r="N145">
-        <v>5.1974999999999998</v>
+        <v>1</v>
       </c>
       <c r="O145">
-        <v>6.1425000000000001</v>
+        <v>0</v>
       </c>
       <c r="P145">
-        <v>7.0875000000000004</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>8.0325000000000006</v>
+        <v>0</v>
       </c>
       <c r="R145">
-        <v>8.9774999999999991</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>9.9224999999999994</v>
+        <v>1</v>
       </c>
       <c r="T145">
-        <v>10.8675</v>
+        <v>0</v>
       </c>
       <c r="U145">
-        <v>10.395</v>
+        <v>0</v>
       </c>
       <c r="V145">
-        <v>9.9224999999999994</v>
+        <v>0</v>
       </c>
       <c r="W145">
-        <v>9.4499999999999993</v>
+        <v>0</v>
       </c>
       <c r="X145">
-        <v>8.9774999999999991</v>
+        <v>1</v>
       </c>
       <c r="Y145">
-        <v>8.5050000000000008</v>
+        <v>0</v>
       </c>
       <c r="Z145">
-        <v>8.0325000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>7.2765000000000013</v>
+        <v>0</v>
       </c>
       <c r="AB145">
-        <v>6.5205000000000011</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>5.7645000000000008</v>
+        <v>1</v>
       </c>
       <c r="AD145">
-        <v>5.0085000000000006</v>
+        <v>0</v>
       </c>
       <c r="AE145">
-        <v>4.5360000000000005</v>
+        <v>0</v>
       </c>
       <c r="AF145">
-        <v>4.0635000000000012</v>
+        <v>0</v>
       </c>
       <c r="AG145">
-        <v>3.5910000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.3">
@@ -5516,13 +5766,13 @@
         <v>33</v>
       </c>
       <c r="B146" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -5531,85 +5781,85 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2.3624999999999998</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>2.835</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>3.3075000000000001</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="L146">
-        <v>0</v>
+        <v>4.2525000000000004</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>5.1974999999999998</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>6.1425000000000001</v>
       </c>
       <c r="P146">
-        <v>0</v>
+        <v>7.0875000000000004</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>8.0325000000000006</v>
       </c>
       <c r="R146">
-        <v>0</v>
+        <v>8.9774999999999991</v>
       </c>
       <c r="S146">
-        <v>1</v>
+        <v>9.9224999999999994</v>
       </c>
       <c r="T146">
-        <v>0</v>
+        <v>10.8675</v>
       </c>
       <c r="U146">
-        <v>0</v>
+        <v>10.395</v>
       </c>
       <c r="V146">
-        <v>0</v>
+        <v>9.9224999999999994</v>
       </c>
       <c r="W146">
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="X146">
-        <v>1</v>
+        <v>8.9774999999999991</v>
       </c>
       <c r="Y146">
-        <v>0</v>
+        <v>8.5050000000000008</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>8.0325000000000006</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>7.2765000000000013</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>6.5205000000000011</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>5.7645000000000008</v>
       </c>
       <c r="AD146">
-        <v>0</v>
+        <v>5.0085000000000006</v>
       </c>
       <c r="AE146">
-        <v>0</v>
+        <v>4.5360000000000005</v>
       </c>
       <c r="AF146">
-        <v>0</v>
+        <v>4.0635000000000012</v>
       </c>
       <c r="AG146">
-        <v>0</v>
+        <v>3.5910000000000006</v>
       </c>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.3">
@@ -5617,13 +5867,13 @@
         <v>33</v>
       </c>
       <c r="B147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5638,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -5653,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147">
         <v>0</v>
@@ -5668,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="S147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T147">
         <v>0</v>
@@ -5683,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="X147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y147">
         <v>0</v>
@@ -5698,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="AC147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD147">
         <v>0</v>
@@ -5718,7 +5968,7 @@
         <v>33</v>
       </c>
       <c r="B148" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
@@ -5819,13 +6069,13 @@
         <v>33</v>
       </c>
       <c r="B149" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5920,13 +6170,13 @@
         <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -6021,22 +6271,22 @@
         <v>33</v>
       </c>
       <c r="B151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
       </c>
       <c r="D151">
-        <v>201.6</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>163.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -6122,25 +6372,25 @@
         <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -6155,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -6170,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="R152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S152">
         <v>0</v>
@@ -6185,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X152">
         <v>0</v>
@@ -6200,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -6215,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="AG152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.3">
@@ -6223,7 +6473,7 @@
         <v>33</v>
       </c>
       <c r="B153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
@@ -6241,82 +6491,82 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
       <c r="L153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O153">
         <v>0</v>
       </c>
       <c r="P153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q153">
         <v>0</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S153">
         <v>0</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U153">
         <v>0</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y153">
         <v>0</v>
       </c>
       <c r="Z153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA153">
         <v>0</v>
       </c>
       <c r="AB153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC153">
         <v>0</v>
       </c>
       <c r="AD153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE153">
         <v>0</v>
       </c>
       <c r="AF153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.3">
@@ -6324,7 +6574,7 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -6342,82 +6592,82 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M154">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O154">
         <v>0</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S154">
         <v>0</v>
       </c>
       <c r="T154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U154">
         <v>0</v>
       </c>
       <c r="V154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y154">
         <v>0</v>
       </c>
       <c r="Z154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA154">
         <v>0</v>
       </c>
       <c r="AB154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC154">
         <v>0</v>
       </c>
       <c r="AD154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE154">
         <v>0</v>
       </c>
       <c r="AF154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG154">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.3">
@@ -6425,7 +6675,7 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -6443,82 +6693,82 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="I155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="N155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="O155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="P155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Q155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="S155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="T155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="U155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="V155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="W155">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="X155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Y155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Z155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AB155">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="AC155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AD155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AE155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AF155">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AG155">
-        <v>672</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.3">
@@ -6526,7 +6776,7 @@
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
@@ -6544,82 +6794,82 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="J156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="L156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="O156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="P156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="S156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="U156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="X156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="Z156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="AB156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AC156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="AD156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AE156">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="AF156">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AG156">
-        <v>0</v>
+        <v>672</v>
       </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.3">
@@ -6627,7 +6877,7 @@
         <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
@@ -6728,7 +6978,7 @@
         <v>33</v>
       </c>
       <c r="B158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
@@ -6829,7 +7079,7 @@
         <v>33</v>
       </c>
       <c r="B159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
@@ -6844,82 +7094,82 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M159">
         <v>0</v>
       </c>
       <c r="N159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O159">
         <v>0</v>
       </c>
       <c r="P159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q159">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S159">
         <v>0</v>
       </c>
       <c r="T159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U159">
         <v>0</v>
       </c>
       <c r="V159">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W159">
         <v>0</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y159">
         <v>0</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA159">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC159">
         <v>0</v>
       </c>
       <c r="AD159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE159">
         <v>0</v>
       </c>
       <c r="AF159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG159">
         <v>0</v>
@@ -6927,19 +7177,103 @@
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B160" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="D160">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>6.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>14</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>14</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>14</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>14</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>14</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <v>0</v>
+      </c>
+      <c r="AD160">
+        <v>0</v>
+      </c>
+      <c r="AE160">
+        <v>0</v>
+      </c>
+      <c r="AF160">
+        <v>0</v>
+      </c>
+      <c r="AG160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.3">
@@ -6947,16 +7281,16 @@
         <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C161" t="s">
         <v>114</v>
       </c>
       <c r="D161">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E161">
-        <v>2.8000000000000003</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.3">
@@ -6964,22 +7298,16 @@
         <v>34</v>
       </c>
       <c r="B162" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="D162">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>30</v>
-      </c>
-      <c r="F162">
-        <v>26</v>
-      </c>
-      <c r="G162">
-        <v>20</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.3">
@@ -6987,114 +7315,36 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C163" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>32</v>
+      </c>
+      <c r="E163">
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <v>26</v>
       </c>
       <c r="G163">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
-      </c>
-      <c r="D164">
-        <v>60</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-      <c r="F164">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>0</v>
-      </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-      <c r="Q164">
-        <v>0</v>
-      </c>
-      <c r="R164">
-        <v>0</v>
-      </c>
-      <c r="S164">
-        <v>0</v>
-      </c>
-      <c r="T164">
-        <v>0</v>
-      </c>
-      <c r="U164">
-        <v>0</v>
-      </c>
-      <c r="V164">
-        <v>0</v>
-      </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-      <c r="X164">
-        <v>0</v>
-      </c>
-      <c r="Y164">
-        <v>0</v>
-      </c>
-      <c r="Z164">
-        <v>0</v>
-      </c>
-      <c r="AA164">
-        <v>0</v>
-      </c>
-      <c r="AB164">
-        <v>0</v>
-      </c>
-      <c r="AC164">
-        <v>0</v>
-      </c>
-      <c r="AD164">
-        <v>0</v>
-      </c>
-      <c r="AE164">
-        <v>0</v>
-      </c>
-      <c r="AF164">
-        <v>0</v>
-      </c>
-      <c r="AG164">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.3">
@@ -7102,16 +7352,16 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C165" t="s">
         <v>24</v>
       </c>
       <c r="D165">
-        <v>1.68</v>
+        <v>60</v>
       </c>
       <c r="E165">
-        <v>0.16800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -7203,100 +7453,100 @@
         <v>35</v>
       </c>
       <c r="B166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C166" t="s">
         <v>24</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="J166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="K166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="L166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="M166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="N166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="O166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="P166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="Q166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="R166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="S166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="T166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="U166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="V166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="W166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="X166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="Y166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="Z166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AA166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AB166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AC166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AD166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AE166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AF166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AG166">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.3">
@@ -7304,7 +7554,7 @@
         <v>35</v>
       </c>
       <c r="B167" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C167" t="s">
         <v>24</v>
@@ -7319,85 +7569,85 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="H167">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="I167">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="J167">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="L167">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="M167">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="N167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="O167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="P167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="Q167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="R167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="S167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="T167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="U167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="V167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="W167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="X167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="Y167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="Z167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AA167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AB167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AC167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AD167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AE167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AF167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AG167">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.3">
@@ -7405,16 +7655,16 @@
         <v>35</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
       </c>
       <c r="D168">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -7423,82 +7673,82 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG168">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.3">
@@ -7506,7 +7756,7 @@
         <v>35</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
@@ -7607,16 +7857,16 @@
         <v>35</v>
       </c>
       <c r="B170" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="E170">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -7708,100 +7958,100 @@
         <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
       </c>
       <c r="D171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="E171">
-        <v>1.764</v>
+        <v>1.26</v>
       </c>
       <c r="F171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="I171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="L171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="M171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="N171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="O171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="P171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="Q171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="S171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="T171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="U171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="V171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="W171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="X171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="Y171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="Z171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AA171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AB171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AD171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AE171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AF171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AG171">
-        <v>1.764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.3">
@@ -7809,100 +8059,100 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="G172">
-        <v>5.04</v>
+        <v>1.764</v>
       </c>
       <c r="H172">
-        <v>5.04</v>
+        <v>1.764</v>
       </c>
       <c r="I172">
-        <v>5.04</v>
+        <v>1.764</v>
       </c>
       <c r="J172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="K172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="L172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="M172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="N172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="O172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="P172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="Q172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="R172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="S172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="T172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="U172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="V172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="W172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="X172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="Y172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="Z172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AA172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AB172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AC172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AD172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AE172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AF172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AG172">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.3">
@@ -7910,7 +8160,7 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
@@ -7925,85 +8175,85 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="L173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="N173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="O173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="P173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="Q173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="R173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="S173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="T173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="U173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="V173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="W173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="X173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AA173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AC173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AD173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AE173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AF173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AG173">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.3">
@@ -8011,7 +8261,7 @@
         <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
@@ -8020,13 +8270,13 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -8112,13 +8362,13 @@
         <v>35</v>
       </c>
       <c r="B175" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
       </c>
       <c r="D175">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>11.25</v>
@@ -8213,22 +8463,22 @@
         <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="D176">
-        <v>22.400000000000002</v>
+        <v>12</v>
       </c>
       <c r="E176">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="F176">
-        <v>18.2</v>
+        <v>9.75</v>
       </c>
       <c r="G176">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -8314,22 +8564,22 @@
         <v>35</v>
       </c>
       <c r="B177" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
       </c>
       <c r="D177">
-        <v>5.6000000000000005</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="E177">
-        <v>5.25</v>
+        <v>21</v>
       </c>
       <c r="F177">
-        <v>4.55</v>
+        <v>18.2</v>
       </c>
       <c r="G177">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -8415,7 +8665,7 @@
         <v>35</v>
       </c>
       <c r="B178" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C178" t="s">
         <v>24</v>
@@ -8516,22 +8766,22 @@
         <v>35</v>
       </c>
       <c r="B179" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C179" t="s">
         <v>24</v>
       </c>
       <c r="D179">
-        <v>48</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="E179">
-        <v>45</v>
+        <v>5.25</v>
       </c>
       <c r="F179">
-        <v>39</v>
+        <v>4.55</v>
       </c>
       <c r="G179">
-        <v>30</v>
+        <v>3.5</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -8617,22 +8867,22 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C180" t="s">
         <v>24</v>
       </c>
       <c r="D180">
-        <v>4.8000000000000007</v>
+        <v>48</v>
       </c>
       <c r="E180">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="F180">
-        <v>3.9000000000000004</v>
+        <v>39</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -8718,22 +8968,22 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C181" t="s">
         <v>24</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="G181">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -8748,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="L181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -8763,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R181">
         <v>0</v>
@@ -8778,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="V181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W181">
         <v>0</v>
@@ -8793,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="AA181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB181">
         <v>0</v>
@@ -8808,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="AF181">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG181">
         <v>0</v>
@@ -8819,7 +9069,7 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C182" t="s">
         <v>24</v>
@@ -8834,85 +9084,85 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE182">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG182">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.3">
@@ -8920,7 +9170,7 @@
         <v>35</v>
       </c>
       <c r="B183" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
@@ -8938,385 +9188,284 @@
         <v>0</v>
       </c>
       <c r="H183">
+        <v>4</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183">
+        <v>4</v>
+      </c>
+      <c r="K183">
+        <v>4</v>
+      </c>
+      <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
+        <v>4</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183">
+        <v>4</v>
+      </c>
+      <c r="P183">
+        <v>4</v>
+      </c>
+      <c r="Q183">
+        <v>4</v>
+      </c>
+      <c r="R183">
+        <v>4</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <v>4</v>
+      </c>
+      <c r="U183">
+        <v>4</v>
+      </c>
+      <c r="V183">
+        <v>4</v>
+      </c>
+      <c r="W183">
+        <v>4</v>
+      </c>
+      <c r="X183">
+        <v>4</v>
+      </c>
+      <c r="Y183">
+        <v>4</v>
+      </c>
+      <c r="Z183">
+        <v>4</v>
+      </c>
+      <c r="AA183">
+        <v>4</v>
+      </c>
+      <c r="AB183">
+        <v>4</v>
+      </c>
+      <c r="AC183">
+        <v>4</v>
+      </c>
+      <c r="AD183">
+        <v>4</v>
+      </c>
+      <c r="AE183">
+        <v>4</v>
+      </c>
+      <c r="AF183">
+        <v>4</v>
+      </c>
+      <c r="AG183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>35</v>
+      </c>
+      <c r="B184" t="s">
+        <v>111</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
         <v>3</v>
       </c>
-      <c r="I183">
+      <c r="I184">
         <v>3</v>
       </c>
-      <c r="J183">
+      <c r="J184">
         <v>3</v>
       </c>
-      <c r="K183">
+      <c r="K184">
         <v>3</v>
       </c>
-      <c r="L183">
+      <c r="L184">
         <v>3</v>
       </c>
-      <c r="M183">
+      <c r="M184">
         <v>3</v>
       </c>
-      <c r="N183">
+      <c r="N184">
         <v>3</v>
       </c>
-      <c r="O183">
+      <c r="O184">
         <v>3</v>
       </c>
-      <c r="P183">
+      <c r="P184">
         <v>3</v>
       </c>
-      <c r="Q183">
+      <c r="Q184">
         <v>3</v>
       </c>
-      <c r="R183">
+      <c r="R184">
         <v>3</v>
       </c>
-      <c r="S183">
+      <c r="S184">
         <v>3</v>
       </c>
-      <c r="T183">
+      <c r="T184">
         <v>3</v>
       </c>
-      <c r="U183">
+      <c r="U184">
         <v>3</v>
       </c>
-      <c r="V183">
+      <c r="V184">
         <v>3</v>
       </c>
-      <c r="W183">
+      <c r="W184">
         <v>3</v>
       </c>
-      <c r="X183">
+      <c r="X184">
         <v>3</v>
       </c>
-      <c r="Y183">
+      <c r="Y184">
         <v>3</v>
       </c>
-      <c r="Z183">
+      <c r="Z184">
         <v>3</v>
       </c>
-      <c r="AA183">
+      <c r="AA184">
         <v>3</v>
       </c>
-      <c r="AB183">
+      <c r="AB184">
         <v>3</v>
       </c>
-      <c r="AC183">
+      <c r="AC184">
         <v>3</v>
       </c>
-      <c r="AD183">
+      <c r="AD184">
         <v>3</v>
       </c>
-      <c r="AE183">
+      <c r="AE184">
         <v>3</v>
       </c>
-      <c r="AF183">
+      <c r="AF184">
         <v>3</v>
       </c>
-      <c r="AG183">
+      <c r="AG184">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B186" t="s">
         <v>88</v>
-      </c>
-      <c r="C184" t="s">
-        <v>112</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-      <c r="F184">
-        <v>0</v>
-      </c>
-      <c r="G184">
-        <v>94.5</v>
-      </c>
-      <c r="H184">
-        <v>118.125</v>
-      </c>
-      <c r="I184">
-        <v>141.75</v>
-      </c>
-      <c r="J184">
-        <v>165.375</v>
-      </c>
-      <c r="K184">
-        <v>189</v>
-      </c>
-      <c r="L184">
-        <v>212.625</v>
-      </c>
-      <c r="M184">
-        <v>236.25</v>
-      </c>
-      <c r="N184">
-        <v>259.875</v>
-      </c>
-      <c r="O184">
-        <v>307.125</v>
-      </c>
-      <c r="P184">
-        <v>354.375</v>
-      </c>
-      <c r="Q184">
-        <v>401.625</v>
-      </c>
-      <c r="R184">
-        <v>448.875</v>
-      </c>
-      <c r="S184">
-        <v>496.125</v>
-      </c>
-      <c r="T184">
-        <v>543.375</v>
-      </c>
-      <c r="U184">
-        <v>519.75</v>
-      </c>
-      <c r="V184">
-        <v>496.125</v>
-      </c>
-      <c r="W184">
-        <v>472.5</v>
-      </c>
-      <c r="X184">
-        <v>448.875</v>
-      </c>
-      <c r="Y184">
-        <v>425.25</v>
-      </c>
-      <c r="Z184">
-        <v>401.625</v>
-      </c>
-      <c r="AA184">
-        <v>363.82500000000005</v>
-      </c>
-      <c r="AB184">
-        <v>326.02500000000003</v>
-      </c>
-      <c r="AC184">
-        <v>288.22500000000002</v>
-      </c>
-      <c r="AD184">
-        <v>250.42500000000004</v>
-      </c>
-      <c r="AE184">
-        <v>226.80000000000004</v>
-      </c>
-      <c r="AF184">
-        <v>203.17500000000004</v>
-      </c>
-      <c r="AG184">
-        <v>179.55000000000004</v>
-      </c>
-    </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>119</v>
-      </c>
-      <c r="B185" t="s">
-        <v>89</v>
-      </c>
-      <c r="C185" t="s">
-        <v>112</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>366.13866314846564</v>
-      </c>
-      <c r="I185">
-        <v>549.20799472269846</v>
-      </c>
-      <c r="J185">
-        <v>549.20799472269846</v>
-      </c>
-      <c r="K185">
-        <v>549.20799472269846</v>
-      </c>
-      <c r="L185">
-        <v>732.27732629693128</v>
-      </c>
-      <c r="M185">
-        <v>732.27732629693128</v>
-      </c>
-      <c r="N185">
-        <v>732.27732629693128</v>
-      </c>
-      <c r="O185">
-        <v>732.27732629693128</v>
-      </c>
-      <c r="P185">
-        <v>866.55445126487166</v>
-      </c>
-      <c r="Q185">
-        <v>866.55445126487166</v>
-      </c>
-      <c r="R185">
-        <v>1000.8315762328122</v>
-      </c>
-      <c r="S185">
-        <v>1002.1065744316124</v>
-      </c>
-      <c r="T185">
-        <v>1003.3815726304125</v>
-      </c>
-      <c r="U185">
-        <v>1004.6565708292128</v>
-      </c>
-      <c r="V185">
-        <v>1005.9315690280127</v>
-      </c>
-      <c r="W185">
-        <v>1007.206567226813</v>
-      </c>
-      <c r="X185">
-        <v>1008.4815654256133</v>
-      </c>
-      <c r="Y185">
-        <v>1009.7565636244134</v>
-      </c>
-      <c r="Z185">
-        <v>1011.0315618232135</v>
-      </c>
-      <c r="AA185">
-        <v>1012.3065600220139</v>
-      </c>
-      <c r="AB185">
-        <v>1013.581558220814</v>
-      </c>
-      <c r="AC185">
-        <v>1014.8565564196142</v>
-      </c>
-      <c r="AD185">
-        <v>1016.1315546184143</v>
-      </c>
-      <c r="AE185">
-        <v>1017.4065528172146</v>
-      </c>
-      <c r="AF185">
-        <v>1018.6815510160146</v>
-      </c>
-      <c r="AG185">
-        <v>1019.9565492148149</v>
-      </c>
-    </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>119</v>
-      </c>
-      <c r="B186" t="s">
-        <v>90</v>
       </c>
       <c r="C186" t="s">
         <v>112</v>
       </c>
       <c r="D186">
-        <v>10080</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>8190</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>6300</v>
+        <v>94.5</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>118.125</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>141.75</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>165.375</v>
       </c>
       <c r="K186">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="L186">
-        <v>0</v>
+        <v>212.625</v>
       </c>
       <c r="M186">
-        <v>0</v>
+        <v>236.25</v>
       </c>
       <c r="N186">
-        <v>0</v>
+        <v>259.875</v>
       </c>
       <c r="O186">
-        <v>0</v>
+        <v>307.125</v>
       </c>
       <c r="P186">
-        <v>0</v>
+        <v>354.375</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>401.625</v>
       </c>
       <c r="R186">
-        <v>0</v>
+        <v>448.875</v>
       </c>
       <c r="S186">
-        <v>0</v>
+        <v>496.125</v>
       </c>
       <c r="T186">
-        <v>0</v>
+        <v>543.375</v>
       </c>
       <c r="U186">
-        <v>0</v>
+        <v>519.75</v>
       </c>
       <c r="V186">
-        <v>0</v>
+        <v>496.125</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>472.5</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>448.875</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>425.25</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>401.625</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>363.82500000000005</v>
       </c>
       <c r="AB186">
-        <v>0</v>
+        <v>326.02500000000003</v>
       </c>
       <c r="AC186">
-        <v>0</v>
+        <v>288.22500000000002</v>
       </c>
       <c r="AD186">
-        <v>0</v>
+        <v>250.42500000000004</v>
       </c>
       <c r="AE186">
-        <v>0</v>
+        <v>226.80000000000004</v>
       </c>
       <c r="AF186">
-        <v>0</v>
+        <v>203.17500000000004</v>
       </c>
       <c r="AG186">
-        <v>0</v>
+        <v>179.55000000000004</v>
       </c>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.3">
@@ -9324,7 +9473,7 @@
         <v>119</v>
       </c>
       <c r="B187" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C187" t="s">
         <v>112</v>
@@ -9342,81 +9491,283 @@
         <v>0</v>
       </c>
       <c r="H187">
+        <v>366.13866314846564</v>
+      </c>
+      <c r="I187">
+        <v>549.20799472269846</v>
+      </c>
+      <c r="J187">
+        <v>549.20799472269846</v>
+      </c>
+      <c r="K187">
+        <v>549.20799472269846</v>
+      </c>
+      <c r="L187">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="M187">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="N187">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="O187">
+        <v>732.27732629693128</v>
+      </c>
+      <c r="P187">
+        <v>866.55445126487166</v>
+      </c>
+      <c r="Q187">
+        <v>866.55445126487166</v>
+      </c>
+      <c r="R187">
+        <v>1000.8315762328122</v>
+      </c>
+      <c r="S187">
+        <v>1002.1065744316124</v>
+      </c>
+      <c r="T187">
+        <v>1003.3815726304125</v>
+      </c>
+      <c r="U187">
+        <v>1004.6565708292128</v>
+      </c>
+      <c r="V187">
+        <v>1005.9315690280127</v>
+      </c>
+      <c r="W187">
+        <v>1007.206567226813</v>
+      </c>
+      <c r="X187">
+        <v>1008.4815654256133</v>
+      </c>
+      <c r="Y187">
+        <v>1009.7565636244134</v>
+      </c>
+      <c r="Z187">
+        <v>1011.0315618232135</v>
+      </c>
+      <c r="AA187">
+        <v>1012.3065600220139</v>
+      </c>
+      <c r="AB187">
+        <v>1013.581558220814</v>
+      </c>
+      <c r="AC187">
+        <v>1014.8565564196142</v>
+      </c>
+      <c r="AD187">
+        <v>1016.1315546184143</v>
+      </c>
+      <c r="AE187">
+        <v>1017.4065528172146</v>
+      </c>
+      <c r="AF187">
+        <v>1018.6815510160146</v>
+      </c>
+      <c r="AG187">
+        <v>1019.9565492148149</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>119</v>
+      </c>
+      <c r="B188" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" t="s">
+        <v>112</v>
+      </c>
+      <c r="D188">
+        <v>10080</v>
+      </c>
+      <c r="E188">
+        <v>9450</v>
+      </c>
+      <c r="F188">
+        <v>8190</v>
+      </c>
+      <c r="G188">
+        <v>6300</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <v>0</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+      <c r="AB188">
+        <v>0</v>
+      </c>
+      <c r="AC188">
+        <v>0</v>
+      </c>
+      <c r="AD188">
+        <v>0</v>
+      </c>
+      <c r="AE188">
+        <v>0</v>
+      </c>
+      <c r="AF188">
+        <v>0</v>
+      </c>
+      <c r="AG188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>119</v>
+      </c>
+      <c r="B189" t="s">
+        <v>91</v>
+      </c>
+      <c r="C189" t="s">
+        <v>112</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
         <v>168</v>
       </c>
-      <c r="I187">
+      <c r="I189">
         <v>168</v>
       </c>
-      <c r="J187">
+      <c r="J189">
         <v>168</v>
       </c>
-      <c r="K187">
+      <c r="K189">
         <v>168</v>
       </c>
-      <c r="L187">
+      <c r="L189">
         <v>168</v>
       </c>
-      <c r="M187">
+      <c r="M189">
         <v>168</v>
       </c>
-      <c r="N187">
+      <c r="N189">
         <v>168</v>
       </c>
-      <c r="O187">
+      <c r="O189">
         <v>168</v>
       </c>
-      <c r="P187">
+      <c r="P189">
         <v>168</v>
       </c>
-      <c r="Q187">
+      <c r="Q189">
         <v>168</v>
       </c>
-      <c r="R187">
+      <c r="R189">
         <v>168</v>
       </c>
-      <c r="S187">
+      <c r="S189">
         <v>168</v>
       </c>
-      <c r="T187">
+      <c r="T189">
         <v>168</v>
       </c>
-      <c r="U187">
+      <c r="U189">
         <v>168</v>
       </c>
-      <c r="V187">
+      <c r="V189">
         <v>168</v>
       </c>
-      <c r="W187">
+      <c r="W189">
         <v>168</v>
       </c>
-      <c r="X187">
+      <c r="X189">
         <v>168</v>
       </c>
-      <c r="Y187">
+      <c r="Y189">
         <v>168</v>
       </c>
-      <c r="Z187">
+      <c r="Z189">
         <v>168</v>
       </c>
-      <c r="AA187">
+      <c r="AA189">
         <v>168</v>
       </c>
-      <c r="AB187">
+      <c r="AB189">
         <v>168</v>
       </c>
-      <c r="AC187">
+      <c r="AC189">
         <v>168</v>
       </c>
-      <c r="AD187">
+      <c r="AD189">
         <v>168</v>
       </c>
-      <c r="AE187">
+      <c r="AE189">
         <v>168</v>
       </c>
-      <c r="AF187">
+      <c r="AF189">
         <v>168</v>
       </c>
-      <c r="AG187">
+      <c r="AG189">
         <v>168</v>
       </c>
     </row>

--- a/data/template/raw data untuk crosscek pam baru.xlsx
+++ b/data/template/raw data untuk crosscek pam baru.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icrafcifor-my.sharepoint.com/personal/d_bodro_cifor-icraf_org/Documents/Documents/GitHub/LUSITA/data/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{C9953028-729E-4230-BDED-2387E9D6C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460D48CE-CABD-4BDD-90ED-6F0420A6767D}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{C9953028-729E-4230-BDED-2387E9D6C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1E12C70-F2B0-4876-90AA-9CB8163AE742}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{434F79F2-1D89-4230-B38A-FBCE8A0F0489}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{434F79F2-1D89-4230-B38A-FBCE8A0F0489}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -918,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E76978D-30F8-4CCF-8060-75D8D0F1ED70}">
-  <dimension ref="A1:AG189"/>
+  <dimension ref="A1:AG190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C124" sqref="B72:C124"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,270 +991,179 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>75</v>
-      </c>
-      <c r="E5" s="1">
-        <v>75</v>
-      </c>
-      <c r="F5" s="1">
-        <v>75</v>
-      </c>
-      <c r="G5" s="1">
-        <v>75</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2658.5160642857145</v>
+      </c>
+      <c r="H5">
+        <v>4044.8571428571431</v>
+      </c>
+      <c r="I5">
+        <v>4829.469542857144</v>
+      </c>
+      <c r="J5">
+        <v>6852.8980928571427</v>
+      </c>
+      <c r="K5">
+        <v>8728.8017142857152</v>
+      </c>
+      <c r="L5">
+        <v>10457.180407142858</v>
+      </c>
+      <c r="M5">
+        <v>12038.034171428573</v>
+      </c>
+      <c r="N5">
+        <v>13471.363007142858</v>
+      </c>
+      <c r="O5">
+        <v>14757.166914285717</v>
+      </c>
+      <c r="P5">
+        <v>15895.445892857144</v>
+      </c>
+      <c r="Q5">
+        <v>16886.19994285714</v>
+      </c>
+      <c r="R5">
+        <v>17729.42906428572</v>
+      </c>
+      <c r="S5">
+        <v>18425.133257142861</v>
+      </c>
+      <c r="T5">
+        <v>18973.312521428572</v>
+      </c>
+      <c r="U5">
+        <v>19373.966857142863</v>
+      </c>
+      <c r="V5">
+        <v>19627.096264285716</v>
+      </c>
+      <c r="W5">
+        <v>19732.700742857145</v>
+      </c>
+      <c r="X5">
+        <v>19690.780292857147</v>
+      </c>
+      <c r="Y5">
+        <v>19501.334914285715</v>
+      </c>
+      <c r="Z5">
+        <v>19164.364607142859</v>
+      </c>
+      <c r="AA5">
+        <v>18679.869371428573</v>
+      </c>
+      <c r="AB5">
+        <v>18047.849207142859</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1">
-        <v>50</v>
-      </c>
-      <c r="K6" s="1">
-        <v>50</v>
-      </c>
-      <c r="L6" s="1">
-        <v>50</v>
-      </c>
-      <c r="M6" s="1">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1">
-        <v>50</v>
-      </c>
-      <c r="O6" s="1">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>50</v>
-      </c>
-      <c r="R6" s="1">
-        <v>50</v>
-      </c>
-      <c r="S6" s="1">
-        <v>50</v>
-      </c>
-      <c r="T6" s="1">
-        <v>50</v>
-      </c>
-      <c r="U6" s="1">
-        <v>50</v>
-      </c>
-      <c r="V6" s="1">
-        <v>50</v>
-      </c>
-      <c r="W6" s="1">
-        <v>50</v>
-      </c>
-      <c r="X6" s="1">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>50</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>50</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>50</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="G7" s="1">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="H7" s="1">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
@@ -1267,85 +1176,85 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="M8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="N8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="O8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="P8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="R8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="S8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="T8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="U8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="V8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="W8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="X8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="1">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -1358,85 +1267,85 @@
         <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="S9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="U9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -1449,85 +1358,85 @@
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="F10" s="1">
-        <v>8</v>
+        <v>600</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Y10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -1540,85 +1449,85 @@
         <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -1628,22 +1537,22 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1655,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1673,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -1691,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -1719,13 +1628,13 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1734,73 +1643,73 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -1813,7 +1722,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
@@ -1834,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1849,13 +1758,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -1864,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
         <v>0</v>
@@ -1873,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>0</v>
@@ -1904,7 +1813,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1916,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -1931,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -1958,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
         <v>0</v>
@@ -1970,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
         <v>0</v>
@@ -1995,7 +1904,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -2016,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -2031,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
         <v>0</v>
@@ -2043,10 +1952,10 @@
         <v>0</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
         <v>0</v>
@@ -2061,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
@@ -2086,13 +1995,13 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -2104,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -2116,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -2128,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -2140,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
         <v>0</v>
@@ -2149,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
         <v>0</v>
@@ -2177,7 +2086,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
@@ -2189,37 +2098,37 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -2231,31 +2140,31 @@
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <v>0</v>
       </c>
       <c r="AB18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -2268,19 +2177,19 @@
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -2301,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -2331,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
         <v>0</v>
@@ -2359,85 +2268,85 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -2450,7 +2359,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -2462,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -2483,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2495,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -2507,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" s="1">
         <v>0</v>
@@ -2519,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>0</v>
@@ -2541,7 +2450,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -2556,70 +2465,70 @@
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -2632,7 +2541,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -2641,76 +2550,76 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
         <v>1</v>
       </c>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>1</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
         <v>1</v>
       </c>
       <c r="Z23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -2720,43 +2629,89 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -2765,88 +2720,88 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -2856,89 +2811,43 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -2947,19 +2856,19 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -3038,88 +2947,88 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -3129,88 +3038,88 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
@@ -3220,88 +3129,88 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="R30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="T30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="W30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="X30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Y30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Z30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AA30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
@@ -3314,85 +3223,85 @@
         <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB31" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
@@ -3405,85 +3314,85 @@
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1">
-        <v>5.3170320000000002</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1">
-        <v>8.0897140000000007</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1">
-        <v>9.6589390000000002</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1">
-        <v>13.7058</v>
+        <v>3</v>
       </c>
       <c r="K32" s="1">
-        <v>17.457599999999999</v>
+        <v>3</v>
       </c>
       <c r="L32" s="1">
-        <v>20.914359999999999</v>
+        <v>3</v>
       </c>
       <c r="M32" s="1">
-        <v>24.076070000000001</v>
+        <v>3</v>
       </c>
       <c r="N32" s="1">
-        <v>26.942730000000001</v>
+        <v>3</v>
       </c>
       <c r="O32" s="1">
-        <v>29.514330000000001</v>
+        <v>3</v>
       </c>
       <c r="P32" s="1">
-        <v>31.790890000000001</v>
+        <v>3</v>
       </c>
       <c r="Q32" s="1">
-        <v>33.772399999999998</v>
+        <v>3</v>
       </c>
       <c r="R32" s="1">
-        <v>35.458860000000001</v>
+        <v>3</v>
       </c>
       <c r="S32" s="1">
-        <v>36.850270000000002</v>
+        <v>3</v>
       </c>
       <c r="T32" s="1">
-        <v>37.946629999999999</v>
+        <v>3</v>
       </c>
       <c r="U32" s="1">
-        <v>38.747929999999997</v>
+        <v>3</v>
       </c>
       <c r="V32" s="1">
-        <v>39.254190000000001</v>
+        <v>3</v>
       </c>
       <c r="W32" s="1">
-        <v>39.465400000000002</v>
+        <v>3</v>
       </c>
       <c r="X32" s="1">
-        <v>39.38156</v>
+        <v>3</v>
       </c>
       <c r="Y32" s="1">
-        <v>39.002670000000002</v>
+        <v>3</v>
       </c>
       <c r="Z32" s="1">
-        <v>38.32873</v>
+        <v>3</v>
       </c>
       <c r="AA32" s="1">
-        <v>37.359740000000002</v>
+        <v>3</v>
       </c>
       <c r="AB32" s="1">
-        <v>36.095700000000001</v>
+        <v>3</v>
       </c>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
@@ -3492,34 +3401,90 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>6</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>6</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6</v>
+      </c>
+      <c r="L33" s="1">
+        <v>6</v>
+      </c>
+      <c r="M33" s="1">
+        <v>6</v>
+      </c>
+      <c r="N33" s="1">
+        <v>6</v>
+      </c>
+      <c r="O33" s="1">
+        <v>6</v>
+      </c>
+      <c r="P33" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>6</v>
+      </c>
+      <c r="R33" s="1">
+        <v>6</v>
+      </c>
+      <c r="S33" s="1">
+        <v>6</v>
+      </c>
+      <c r="T33" s="1">
+        <v>6</v>
+      </c>
+      <c r="U33" s="1">
+        <v>6</v>
+      </c>
+      <c r="V33" s="1">
+        <v>6</v>
+      </c>
+      <c r="W33" s="1">
+        <v>6</v>
+      </c>
+      <c r="X33" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>6</v>
+      </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -3528,135 +3493,157 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>2658.5160642857145</v>
-      </c>
-      <c r="H34">
-        <v>4044.8571428571431</v>
-      </c>
-      <c r="I34">
-        <v>4829.469542857144</v>
-      </c>
-      <c r="J34">
-        <v>6852.8980928571427</v>
-      </c>
-      <c r="K34">
-        <v>8728.8017142857152</v>
-      </c>
-      <c r="L34">
-        <v>10457.180407142858</v>
-      </c>
-      <c r="M34">
-        <v>12038.034171428573</v>
-      </c>
-      <c r="N34">
-        <v>13471.363007142858</v>
-      </c>
-      <c r="O34">
-        <v>14757.166914285717</v>
-      </c>
-      <c r="P34">
-        <v>15895.445892857144</v>
-      </c>
-      <c r="Q34">
-        <v>16886.19994285714</v>
-      </c>
-      <c r="R34">
-        <v>17729.42906428572</v>
-      </c>
-      <c r="S34">
-        <v>18425.133257142861</v>
-      </c>
-      <c r="T34">
-        <v>18973.312521428572</v>
-      </c>
-      <c r="U34">
-        <v>19373.966857142863</v>
-      </c>
-      <c r="V34">
-        <v>19627.096264285716</v>
-      </c>
-      <c r="W34">
-        <v>19732.700742857145</v>
-      </c>
-      <c r="X34">
-        <v>19690.780292857147</v>
-      </c>
-      <c r="Y34">
-        <v>19501.334914285715</v>
-      </c>
-      <c r="Z34">
-        <v>19164.364607142859</v>
-      </c>
-      <c r="AA34">
-        <v>18679.869371428573</v>
-      </c>
-      <c r="AB34">
-        <v>18047.849207142859</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="10">
-        <v>9000</v>
-      </c>
-      <c r="D37" s="10">
-        <v>9000</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.3170320000000002</v>
+      </c>
+      <c r="H34" s="1">
+        <v>8.0897140000000007</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9.6589390000000002</v>
+      </c>
+      <c r="J34" s="1">
+        <v>13.7058</v>
+      </c>
+      <c r="K34" s="1">
+        <v>17.457599999999999</v>
+      </c>
+      <c r="L34" s="1">
+        <v>20.914359999999999</v>
+      </c>
+      <c r="M34" s="1">
+        <v>24.076070000000001</v>
+      </c>
+      <c r="N34" s="1">
+        <v>26.942730000000001</v>
+      </c>
+      <c r="O34" s="1">
+        <v>29.514330000000001</v>
+      </c>
+      <c r="P34" s="1">
+        <v>31.790890000000001</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>33.772399999999998</v>
+      </c>
+      <c r="R34" s="1">
+        <v>35.458860000000001</v>
+      </c>
+      <c r="S34" s="1">
+        <v>36.850270000000002</v>
+      </c>
+      <c r="T34" s="1">
+        <v>37.946629999999999</v>
+      </c>
+      <c r="U34" s="1">
+        <v>38.747929999999997</v>
+      </c>
+      <c r="V34" s="1">
+        <v>39.254190000000001</v>
+      </c>
+      <c r="W34" s="1">
+        <v>39.465400000000002</v>
+      </c>
+      <c r="X34" s="1">
+        <v>39.38156</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>39.002670000000002</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>38.32873</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>37.359740000000002</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>36.095700000000001</v>
+      </c>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="10">
-        <v>14000</v>
-      </c>
-      <c r="D38" s="10">
-        <v>14000</v>
-      </c>
+        <v>9000</v>
+      </c>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1000</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -3664,251 +3651,215 @@
       <c r="C40" s="10">
         <v>1000</v>
       </c>
-      <c r="D40" s="10">
-        <v>1000</v>
-      </c>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="10">
-        <v>90000</v>
-      </c>
-      <c r="D41" s="10">
-        <v>90000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="10">
-        <v>102000</v>
-      </c>
-      <c r="D42" s="10">
-        <v>102000</v>
-      </c>
+        <v>90000</v>
+      </c>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="10">
-        <v>95000</v>
-      </c>
-      <c r="D43" s="10">
-        <v>95000</v>
-      </c>
+        <v>102000</v>
+      </c>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="10">
-        <v>100000</v>
-      </c>
-      <c r="D44" s="10">
-        <v>100000</v>
-      </c>
+        <v>95000</v>
+      </c>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="10">
-        <v>38000</v>
-      </c>
-      <c r="D45" s="10">
-        <v>38000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="10">
-        <v>93000</v>
-      </c>
-      <c r="D46" s="10">
-        <v>93000</v>
-      </c>
+        <v>38000</v>
+      </c>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="10">
-        <v>585000</v>
-      </c>
-      <c r="D47" s="10">
-        <v>585000</v>
-      </c>
+        <v>93000</v>
+      </c>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="10">
-        <v>500000</v>
-      </c>
-      <c r="D48" s="10">
-        <v>500000</v>
-      </c>
+        <v>585000</v>
+      </c>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="10">
-        <v>460000</v>
-      </c>
-      <c r="D49" s="10">
-        <v>460000</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="10">
-        <v>80000</v>
-      </c>
-      <c r="D50" s="10">
-        <v>80000</v>
-      </c>
+        <v>460000</v>
+      </c>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="10">
-        <v>5500000</v>
-      </c>
-      <c r="D51" s="10">
-        <v>5500000</v>
-      </c>
+        <v>80000</v>
+      </c>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
       </c>
       <c r="C52" s="10">
-        <v>50000</v>
-      </c>
-      <c r="D52" s="10">
-        <v>50000</v>
-      </c>
+        <v>5500000</v>
+      </c>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
       </c>
       <c r="C53" s="10">
-        <v>300000</v>
-      </c>
-      <c r="D53" s="10">
-        <v>300000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
       </c>
       <c r="C54" s="10">
-        <v>200000</v>
-      </c>
-      <c r="D54" s="10">
-        <v>200000</v>
-      </c>
+        <v>300000</v>
+      </c>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="10">
-        <v>100000</v>
-      </c>
-      <c r="D55" s="10">
-        <v>100000</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="10">
-        <v>30000</v>
-      </c>
-      <c r="D56" s="10">
-        <v>30000</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="10">
-        <v>100000</v>
-      </c>
-      <c r="D57" s="10">
-        <v>100000</v>
-      </c>
+        <v>30000</v>
+      </c>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
         <v>45</v>
@@ -3916,13 +3867,11 @@
       <c r="C58" s="10">
         <v>100000</v>
       </c>
-      <c r="D58" s="10">
-        <v>100000</v>
-      </c>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
         <v>45</v>
@@ -3930,13 +3879,11 @@
       <c r="C59" s="10">
         <v>100000</v>
       </c>
-      <c r="D59" s="10">
-        <v>100000</v>
-      </c>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
         <v>45</v>
@@ -3944,13 +3891,11 @@
       <c r="C60" s="10">
         <v>100000</v>
       </c>
-      <c r="D60" s="10">
-        <v>100000</v>
-      </c>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>45</v>
@@ -3958,13 +3903,11 @@
       <c r="C61" s="10">
         <v>100000</v>
       </c>
-      <c r="D61" s="10">
-        <v>100000</v>
-      </c>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
@@ -3972,13 +3915,11 @@
       <c r="C62" s="10">
         <v>100000</v>
       </c>
-      <c r="D62" s="10">
-        <v>100000</v>
-      </c>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
@@ -3986,13 +3927,11 @@
       <c r="C63" s="10">
         <v>100000</v>
       </c>
-      <c r="D63" s="10">
-        <v>100000</v>
-      </c>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" t="s">
         <v>45</v>
@@ -4000,605 +3939,601 @@
       <c r="C64" s="10">
         <v>100000</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="10">
         <v>100000</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D65" s="10"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>36</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>40</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <v>1750</v>
       </c>
-      <c r="D66">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>56</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72">
-        <v>3800</v>
-      </c>
-      <c r="F72" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B73" t="s">
         <v>40</v>
       </c>
       <c r="C73">
+        <v>3800</v>
+      </c>
+      <c r="F73" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74">
         <v>3000</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>122</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>57</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74">
-        <v>123500</v>
-      </c>
-      <c r="F74" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>58</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C75">
-        <v>80000</v>
+        <v>123500</v>
       </c>
       <c r="F75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C76">
         <v>80000</v>
       </c>
       <c r="F76" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77">
+        <v>80000</v>
+      </c>
+      <c r="F77" t="s">
         <v>128</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>60</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>61</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>1000</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>130</v>
       </c>
-      <c r="G77">
+      <c r="G78">
         <v>30</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>62</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>42</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>75000</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>64</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>63</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>2000000</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>46</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J80" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80">
-        <v>125000</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" t="s">
-        <v>48</v>
-      </c>
-      <c r="H80">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="J80" t="s">
-        <v>133</v>
-      </c>
-      <c r="K80" s="9">
-        <v>136865428.80637375</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
         <v>43</v>
       </c>
       <c r="C81">
-        <v>105000</v>
+        <v>125000</v>
       </c>
       <c r="F81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H81">
-        <v>120000</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="J81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K81" s="9">
-        <v>8662.3689117958074</v>
+        <v>136865428.80637375</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
       </c>
       <c r="C82">
-        <v>600000</v>
+        <v>105000</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H82">
-        <v>15800</v>
+        <v>120000</v>
       </c>
       <c r="J82" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K82" s="9">
-        <v>11140496.274771284</v>
+        <v>8662.3689117958074</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
         <v>43</v>
       </c>
       <c r="C83">
-        <v>3000</v>
+        <v>600000</v>
+      </c>
+      <c r="F83" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83">
+        <v>15800</v>
       </c>
       <c r="J83" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K83" s="9">
-        <v>364689.34120879852</v>
+        <v>11140496.274771284</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
         <v>43</v>
       </c>
       <c r="C84">
-        <v>1000</v>
-      </c>
-      <c r="F84" t="s">
-        <v>137</v>
-      </c>
-      <c r="G84" t="s">
-        <v>138</v>
-      </c>
-      <c r="H84" t="s">
-        <v>139</v>
+        <v>3000</v>
       </c>
       <c r="J84" t="s">
-        <v>140</v>
-      </c>
-      <c r="K84" s="9" t="e">
-        <v>#NUM!</v>
+        <v>136</v>
+      </c>
+      <c r="K84" s="9">
+        <v>364689.34120879852</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
         <v>43</v>
       </c>
       <c r="C85">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="G85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H85">
-        <v>13250</v>
+        <v>138</v>
+      </c>
+      <c r="H85" t="s">
+        <v>139</v>
       </c>
       <c r="J85" t="s">
-        <v>141</v>
-      </c>
-      <c r="K85" s="9">
-        <v>1.6628644115903373</v>
+        <v>140</v>
+      </c>
+      <c r="K85" s="9" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
         <v>43</v>
       </c>
       <c r="C86">
-        <v>3000</v>
+        <v>80000</v>
       </c>
       <c r="F86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s">
         <v>112</v>
       </c>
       <c r="H86">
-        <v>2000</v>
+        <v>13250</v>
       </c>
       <c r="J86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K86" s="9">
-        <v>35520280</v>
+        <v>1.6628644115903373</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
         <v>43</v>
       </c>
       <c r="C87">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
         <v>112</v>
       </c>
       <c r="H87">
-        <v>3900</v>
+        <v>2000</v>
       </c>
       <c r="J87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K87" s="9">
-        <v>124544640</v>
+        <v>35520280</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
         <v>43</v>
       </c>
       <c r="C88">
-        <v>75500</v>
+        <v>25000</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s">
         <v>112</v>
       </c>
       <c r="H88">
-        <v>120000</v>
+        <v>3900</v>
       </c>
       <c r="J88" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K88" s="9">
-        <v>311402069</v>
+        <v>124544640</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
         <v>43</v>
       </c>
       <c r="C89">
-        <v>115000</v>
+        <v>75500</v>
+      </c>
+      <c r="F89" t="s">
+        <v>91</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
+      <c r="H89">
+        <v>120000</v>
       </c>
       <c r="J89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K89" s="9">
-        <v>165.624</v>
+        <v>311402069</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
         <v>43</v>
       </c>
       <c r="C90">
-        <v>180000</v>
+        <v>115000</v>
       </c>
       <c r="J90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K90" s="9">
-        <v>129923117.5</v>
+        <v>165.624</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
         <v>43</v>
       </c>
       <c r="C91">
-        <v>25000</v>
+        <v>180000</v>
       </c>
       <c r="J91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K91" s="9">
-        <v>662.23199999999974</v>
+        <v>129923117.5</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
         <v>43</v>
       </c>
       <c r="C92">
-        <v>3000</v>
-      </c>
-      <c r="F92" t="s">
-        <v>148</v>
-      </c>
-      <c r="G92" t="s">
-        <v>149</v>
-      </c>
-      <c r="H92" t="s">
-        <v>150</v>
+        <v>25000</v>
       </c>
       <c r="J92" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K92" s="9">
-        <v>10.702156633259371</v>
+        <v>662.23199999999974</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
         <v>43</v>
       </c>
       <c r="C93">
-        <v>9000000</v>
+        <v>3000</v>
       </c>
       <c r="F93" t="s">
-        <v>88</v>
-      </c>
-      <c r="G93">
-        <v>63</v>
+        <v>148</v>
+      </c>
+      <c r="G93" t="s">
+        <v>149</v>
       </c>
       <c r="H93" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="J93" t="s">
+        <v>151</v>
+      </c>
+      <c r="K93" s="9">
+        <v>10.702156633259371</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
       </c>
       <c r="C94">
-        <v>25000</v>
+        <v>9000000</v>
       </c>
       <c r="F94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G94">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="H94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
         <v>43</v>
       </c>
       <c r="C95">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="F95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G95">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
         <v>43</v>
       </c>
       <c r="C96">
-        <v>4000</v>
+        <v>75000</v>
       </c>
       <c r="F96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G96">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
         <v>43</v>
       </c>
       <c r="C97">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4000</v>
+      </c>
+      <c r="F97" t="s">
+        <v>91</v>
+      </c>
+      <c r="G97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" t="s">
         <v>43</v>
       </c>
       <c r="C98">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
         <v>43</v>
       </c>
       <c r="C99">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
         <v>43</v>
       </c>
       <c r="C100">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101">
         <v>1000000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>88</v>
-      </c>
-      <c r="B101" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>89</v>
       </c>
       <c r="B102" t="s">
         <v>86</v>
@@ -4607,42 +4542,42 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>90</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>40</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>120000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>91</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>87</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>500000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>92</v>
-      </c>
-      <c r="B105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>93</v>
       </c>
       <c r="B106" t="s">
         <v>45</v>
@@ -4651,9 +4586,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B107" t="s">
         <v>45</v>
@@ -4662,9 +4597,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" t="s">
         <v>45</v>
@@ -4673,9 +4608,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
         <v>45</v>
@@ -4684,9 +4619,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -4695,9 +4630,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B111" t="s">
         <v>45</v>
@@ -4706,9 +4641,9 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" t="s">
         <v>45</v>
@@ -4719,7 +4654,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" t="s">
         <v>45</v>
@@ -4730,7 +4665,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B114" t="s">
         <v>45</v>
@@ -4741,7 +4676,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B115" t="s">
         <v>45</v>
@@ -4752,7 +4687,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B116" t="s">
         <v>45</v>
@@ -4763,7 +4698,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
         <v>45</v>
@@ -4774,7 +4709,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
         <v>45</v>
@@ -4785,7 +4720,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B119" t="s">
         <v>45</v>
@@ -4796,7 +4731,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120" t="s">
         <v>45</v>
@@ -4807,7 +4742,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B121" t="s">
         <v>45</v>
@@ -4818,7 +4753,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B122" t="s">
         <v>45</v>
@@ -4829,7 +4764,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123" t="s">
         <v>45</v>
@@ -4840,7 +4775,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124" t="s">
         <v>45</v>
@@ -4849,71 +4784,59 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>88</v>
-      </c>
-      <c r="B126" t="s">
-        <v>61</v>
-      </c>
-      <c r="C126">
-        <v>13250</v>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125">
+        <v>120000</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B127" t="s">
         <v>61</v>
       </c>
       <c r="C127">
-        <v>2000</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B128" t="s">
         <v>61</v>
       </c>
       <c r="C128">
-        <v>3900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B129" t="s">
         <v>61</v>
       </c>
       <c r="C129">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" t="s">
+        <v>61</v>
+      </c>
+      <c r="C130">
         <v>120000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1</v>
-      </c>
-      <c r="D132">
-        <v>400</v>
-      </c>
-      <c r="E132">
-        <v>375</v>
-      </c>
-      <c r="F132">
-        <v>325</v>
-      </c>
-      <c r="G132">
-        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.3">
@@ -4921,53 +4844,53 @@
         <v>32</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="E133">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="F133">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="G133">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B134" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>1.6</v>
+        <v>320</v>
       </c>
       <c r="E134">
-        <v>1.5</v>
+        <v>300</v>
       </c>
       <c r="F134">
-        <v>1.3</v>
+        <v>260</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
@@ -4987,273 +4910,195 @@
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
       <c r="D136">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F136">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D137">
-        <v>1600</v>
+        <v>3.2</v>
       </c>
       <c r="E137">
-        <v>1500</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>1300</v>
+        <v>2.6</v>
       </c>
       <c r="G137">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D138">
-        <v>3.2</v>
+        <v>1600</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>1500</v>
       </c>
       <c r="F138">
-        <v>2.6</v>
+        <v>1300</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C139" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c r="J139">
-        <v>1</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139">
-        <v>1</v>
-      </c>
-      <c r="M139">
-        <v>1</v>
-      </c>
-      <c r="N139">
-        <v>1</v>
-      </c>
-      <c r="O139">
-        <v>1</v>
-      </c>
-      <c r="P139">
-        <v>1</v>
-      </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
-      <c r="R139">
-        <v>1</v>
-      </c>
-      <c r="S139">
-        <v>1</v>
-      </c>
-      <c r="T139">
-        <v>1</v>
-      </c>
-      <c r="U139">
-        <v>1</v>
-      </c>
-      <c r="V139">
-        <v>1</v>
-      </c>
-      <c r="W139">
-        <v>1</v>
-      </c>
-      <c r="X139">
-        <v>1</v>
-      </c>
-      <c r="Y139">
-        <v>1</v>
-      </c>
-      <c r="Z139">
-        <v>1</v>
-      </c>
-      <c r="AA139">
-        <v>1</v>
-      </c>
-      <c r="AB139">
-        <v>1</v>
-      </c>
-      <c r="AC139">
-        <v>1</v>
-      </c>
-      <c r="AD139">
-        <v>1</v>
-      </c>
-      <c r="AE139">
-        <v>1</v>
-      </c>
-      <c r="AF139">
-        <v>1</v>
-      </c>
-      <c r="AG139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.3">
@@ -5261,7 +5106,7 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
@@ -5273,25 +5118,25 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
         <v>2</v>
       </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
       <c r="K141">
         <v>0</v>
       </c>
       <c r="L141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -5303,25 +5148,25 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q141">
         <v>0</v>
       </c>
       <c r="R141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
         <v>2</v>
       </c>
-      <c r="T141">
-        <v>0</v>
-      </c>
       <c r="U141">
         <v>0</v>
       </c>
       <c r="V141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W141">
         <v>0</v>
@@ -5333,25 +5178,25 @@
         <v>0</v>
       </c>
       <c r="Z141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA141">
         <v>0</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
         <v>2</v>
       </c>
-      <c r="AD141">
-        <v>0</v>
-      </c>
       <c r="AE141">
         <v>0</v>
       </c>
       <c r="AF141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG141">
         <v>0</v>
@@ -5362,7 +5207,7 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
@@ -5463,13 +5308,13 @@
         <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C143" t="s">
         <v>11</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5481,82 +5326,82 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="J143">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="M143">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N143">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="O143">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="P143">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="S143">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="U143">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="V143">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="W143">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X143">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="Y143">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Z143">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB143">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="AD143">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AE143">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF143">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AG143">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.3">
@@ -5564,16 +5409,16 @@
         <v>33</v>
       </c>
       <c r="B144" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C144" t="s">
         <v>11</v>
       </c>
       <c r="D144">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -5582,82 +5427,82 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N144">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="O144">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="P144">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="R144">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="S144">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="T144">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="U144">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="V144">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="W144">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="X144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AC144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AD144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AE144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF144">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG144">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.3">
@@ -5665,16 +5510,16 @@
         <v>33</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C145" t="s">
         <v>11</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -5686,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -5701,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -5716,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="S145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T145">
         <v>0</v>
@@ -5731,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="X145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y145">
         <v>0</v>
@@ -5746,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AC145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD145">
         <v>0</v>
@@ -5766,13 +5611,13 @@
         <v>33</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -5781,85 +5626,85 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>2.3624999999999998</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2.835</v>
+        <v>1</v>
       </c>
       <c r="J146">
-        <v>3.3075000000000001</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>3.78</v>
+        <v>0</v>
       </c>
       <c r="L146">
-        <v>4.2525000000000004</v>
+        <v>0</v>
       </c>
       <c r="M146">
-        <v>4.7249999999999996</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>5.1974999999999998</v>
+        <v>1</v>
       </c>
       <c r="O146">
-        <v>6.1425000000000001</v>
+        <v>0</v>
       </c>
       <c r="P146">
-        <v>7.0875000000000004</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>8.0325000000000006</v>
+        <v>0</v>
       </c>
       <c r="R146">
-        <v>8.9774999999999991</v>
+        <v>0</v>
       </c>
       <c r="S146">
-        <v>9.9224999999999994</v>
+        <v>1</v>
       </c>
       <c r="T146">
-        <v>10.8675</v>
+        <v>0</v>
       </c>
       <c r="U146">
-        <v>10.395</v>
+        <v>0</v>
       </c>
       <c r="V146">
-        <v>9.9224999999999994</v>
+        <v>0</v>
       </c>
       <c r="W146">
-        <v>9.4499999999999993</v>
+        <v>0</v>
       </c>
       <c r="X146">
-        <v>8.9774999999999991</v>
+        <v>1</v>
       </c>
       <c r="Y146">
-        <v>8.5050000000000008</v>
+        <v>0</v>
       </c>
       <c r="Z146">
-        <v>8.0325000000000006</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>7.2765000000000013</v>
+        <v>0</v>
       </c>
       <c r="AB146">
-        <v>6.5205000000000011</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>5.7645000000000008</v>
+        <v>1</v>
       </c>
       <c r="AD146">
-        <v>5.0085000000000006</v>
+        <v>0</v>
       </c>
       <c r="AE146">
-        <v>4.5360000000000005</v>
+        <v>0</v>
       </c>
       <c r="AF146">
-        <v>4.0635000000000012</v>
+        <v>0</v>
       </c>
       <c r="AG146">
-        <v>3.5910000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.3">
@@ -5867,13 +5712,13 @@
         <v>33</v>
       </c>
       <c r="B147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C147" t="s">
         <v>11</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5882,85 +5727,85 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2.3624999999999998</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2.835</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>3.3075000000000001</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>4.2525000000000004</v>
       </c>
       <c r="M147">
-        <v>0</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>5.1974999999999998</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>6.1425000000000001</v>
       </c>
       <c r="P147">
-        <v>0</v>
+        <v>7.0875000000000004</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>8.0325000000000006</v>
       </c>
       <c r="R147">
-        <v>0</v>
+        <v>8.9774999999999991</v>
       </c>
       <c r="S147">
-        <v>1</v>
+        <v>9.9224999999999994</v>
       </c>
       <c r="T147">
-        <v>0</v>
+        <v>10.8675</v>
       </c>
       <c r="U147">
-        <v>0</v>
+        <v>10.395</v>
       </c>
       <c r="V147">
-        <v>0</v>
+        <v>9.9224999999999994</v>
       </c>
       <c r="W147">
-        <v>0</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="X147">
-        <v>1</v>
+        <v>8.9774999999999991</v>
       </c>
       <c r="Y147">
-        <v>0</v>
+        <v>8.5050000000000008</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>8.0325000000000006</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>7.2765000000000013</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>6.5205000000000011</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>5.7645000000000008</v>
       </c>
       <c r="AD147">
-        <v>0</v>
+        <v>5.0085000000000006</v>
       </c>
       <c r="AE147">
-        <v>0</v>
+        <v>4.5360000000000005</v>
       </c>
       <c r="AF147">
-        <v>0</v>
+        <v>4.0635000000000012</v>
       </c>
       <c r="AG147">
-        <v>0</v>
+        <v>3.5910000000000006</v>
       </c>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.3">
@@ -5968,13 +5813,13 @@
         <v>33</v>
       </c>
       <c r="B148" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5989,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6004,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148">
         <v>0</v>
@@ -6019,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="S148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T148">
         <v>0</v>
@@ -6034,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="X148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y148">
         <v>0</v>
@@ -6049,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="AC148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD148">
         <v>0</v>
@@ -6069,7 +5914,7 @@
         <v>33</v>
       </c>
       <c r="B149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
@@ -6170,13 +6015,13 @@
         <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -6271,13 +6116,13 @@
         <v>33</v>
       </c>
       <c r="B151" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -6372,22 +6217,22 @@
         <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152">
-        <v>201.6</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>163.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -6473,25 +6318,25 @@
         <v>33</v>
       </c>
       <c r="B153" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -6506,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -6521,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="R153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S153">
         <v>0</v>
@@ -6536,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="W153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X153">
         <v>0</v>
@@ -6551,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="AB153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -6566,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="AG153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.3">
@@ -6574,7 +6419,7 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C154" t="s">
         <v>11</v>
@@ -6592,82 +6437,82 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K154">
         <v>0</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O154">
         <v>0</v>
       </c>
       <c r="P154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q154">
         <v>0</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S154">
         <v>0</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U154">
         <v>0</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y154">
         <v>0</v>
       </c>
       <c r="Z154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA154">
         <v>0</v>
       </c>
       <c r="AB154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC154">
         <v>0</v>
       </c>
       <c r="AD154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE154">
         <v>0</v>
       </c>
       <c r="AF154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.3">
@@ -6675,7 +6520,7 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
@@ -6693,82 +6538,82 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I155">
         <v>0</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K155">
         <v>0</v>
       </c>
       <c r="L155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O155">
         <v>0</v>
       </c>
       <c r="P155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S155">
         <v>0</v>
       </c>
       <c r="T155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U155">
         <v>0</v>
       </c>
       <c r="V155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y155">
         <v>0</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA155">
         <v>0</v>
       </c>
       <c r="AB155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC155">
         <v>0</v>
       </c>
       <c r="AD155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE155">
         <v>0</v>
       </c>
       <c r="AF155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG155">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.3">
@@ -6776,7 +6621,7 @@
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
@@ -6794,82 +6639,82 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="I156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="K156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="L156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="O156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="P156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Q156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="S156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="T156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="U156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="V156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="W156">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="X156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Y156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="Z156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AB156">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="AC156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AD156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AE156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AF156">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AG156">
-        <v>672</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.3">
@@ -6877,7 +6722,7 @@
         <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
@@ -6895,82 +6740,82 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="J157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="K157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="L157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="N157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="O157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="P157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="R157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="S157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="U157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="X157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="Z157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="AB157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AC157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="AD157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AE157">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="AF157">
-        <v>2</v>
+        <v>672</v>
       </c>
       <c r="AG157">
-        <v>0</v>
+        <v>672</v>
       </c>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.3">
@@ -6978,7 +6823,7 @@
         <v>33</v>
       </c>
       <c r="B158" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
@@ -7079,7 +6924,7 @@
         <v>33</v>
       </c>
       <c r="B159" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C159" t="s">
         <v>11</v>
@@ -7180,7 +7025,7 @@
         <v>33</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
@@ -7195,82 +7040,82 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M160">
         <v>0</v>
       </c>
       <c r="N160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O160">
         <v>0</v>
       </c>
       <c r="P160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q160">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S160">
         <v>0</v>
       </c>
       <c r="T160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U160">
         <v>0</v>
       </c>
       <c r="V160">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="W160">
         <v>0</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y160">
         <v>0</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA160">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC160">
         <v>0</v>
       </c>
       <c r="AD160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE160">
         <v>0</v>
       </c>
       <c r="AF160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG160">
         <v>0</v>
@@ -7278,19 +7123,103 @@
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B161" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C161" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="D161">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>6.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>14</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>14</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>14</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>14</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>14</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+      <c r="AC161">
+        <v>0</v>
+      </c>
+      <c r="AD161">
+        <v>0</v>
+      </c>
+      <c r="AE161">
+        <v>0</v>
+      </c>
+      <c r="AF161">
+        <v>0</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.3">
@@ -7298,16 +7227,16 @@
         <v>34</v>
       </c>
       <c r="B162" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C162" t="s">
         <v>114</v>
       </c>
       <c r="D162">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E162">
-        <v>2.8000000000000003</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.3">
@@ -7315,22 +7244,16 @@
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C163" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="D163">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>30</v>
-      </c>
-      <c r="F163">
-        <v>26</v>
-      </c>
-      <c r="G163">
-        <v>20</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.3">
@@ -7338,114 +7261,36 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C164" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>32</v>
+      </c>
+      <c r="E164">
+        <v>30</v>
+      </c>
+      <c r="F164">
+        <v>26</v>
       </c>
       <c r="G164">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
-      </c>
-      <c r="D165">
-        <v>60</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>0</v>
-      </c>
-      <c r="I165">
-        <v>0</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-      <c r="O165">
-        <v>0</v>
-      </c>
-      <c r="P165">
-        <v>0</v>
-      </c>
-      <c r="Q165">
-        <v>0</v>
-      </c>
-      <c r="R165">
-        <v>0</v>
-      </c>
-      <c r="S165">
-        <v>0</v>
-      </c>
-      <c r="T165">
-        <v>0</v>
-      </c>
-      <c r="U165">
-        <v>0</v>
-      </c>
-      <c r="V165">
-        <v>0</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="X165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>0</v>
-      </c>
-      <c r="Z165">
-        <v>0</v>
-      </c>
-      <c r="AA165">
-        <v>0</v>
-      </c>
-      <c r="AB165">
-        <v>0</v>
-      </c>
-      <c r="AC165">
-        <v>0</v>
-      </c>
-      <c r="AD165">
-        <v>0</v>
-      </c>
-      <c r="AE165">
-        <v>0</v>
-      </c>
-      <c r="AF165">
-        <v>0</v>
-      </c>
-      <c r="AG165">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.3">
@@ -7453,16 +7298,16 @@
         <v>35</v>
       </c>
       <c r="B166" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C166" t="s">
         <v>24</v>
       </c>
       <c r="D166">
-        <v>1.68</v>
+        <v>60</v>
       </c>
       <c r="E166">
-        <v>0.16800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -7554,100 +7399,100 @@
         <v>35</v>
       </c>
       <c r="B167" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C167" t="s">
         <v>24</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="K167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="L167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="M167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="N167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="O167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="P167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="S167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="T167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="U167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="V167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="W167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="X167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="Y167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="Z167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AB167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AC167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AD167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AE167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AF167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AG167">
-        <v>0.98000000000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.3">
@@ -7655,7 +7500,7 @@
         <v>35</v>
       </c>
       <c r="B168" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
@@ -7670,85 +7515,85 @@
         <v>0</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="H168">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="I168">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="J168">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="K168">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="M168">
-        <v>3.5</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="N168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="O168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="P168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="Q168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="R168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="S168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="T168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="U168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="V168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="W168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="X168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="Y168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="Z168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AA168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AB168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AC168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AD168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AE168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AF168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="AG168">
-        <v>7</v>
+        <v>0.98000000000000009</v>
       </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.3">
@@ -7756,16 +7601,16 @@
         <v>35</v>
       </c>
       <c r="B169" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="D169">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -7774,82 +7619,82 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K169">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M169">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF169">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG169">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.3">
@@ -7857,7 +7702,7 @@
         <v>35</v>
       </c>
       <c r="B170" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
@@ -7958,16 +7803,16 @@
         <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="E171">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -8059,100 +7904,100 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
       </c>
       <c r="D172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>1.764</v>
+        <v>1.26</v>
       </c>
       <c r="F172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="K172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="L172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="M172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="N172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="O172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="P172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="Q172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="S172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="T172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="U172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="V172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="W172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="X172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="Y172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="Z172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AA172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AB172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AD172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AE172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AF172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
       <c r="AG172">
-        <v>1.764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.3">
@@ -8160,100 +8005,100 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1.764</v>
       </c>
       <c r="G173">
-        <v>5.04</v>
+        <v>1.764</v>
       </c>
       <c r="H173">
-        <v>5.04</v>
+        <v>1.764</v>
       </c>
       <c r="I173">
-        <v>5.04</v>
+        <v>1.764</v>
       </c>
       <c r="J173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="K173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="L173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="M173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="N173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="O173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="P173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="Q173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="R173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="S173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="T173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="U173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="V173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="W173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="X173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="Y173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="Z173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AA173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AB173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AC173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AD173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AE173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AF173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
       <c r="AG173">
-        <v>5.7960000000000003</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.3">
@@ -8261,7 +8106,7 @@
         <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
@@ -8276,85 +8121,85 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="J174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="L174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="M174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="N174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="O174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="P174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="Q174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="R174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="S174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="T174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="U174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="V174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="W174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="X174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="Y174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="Z174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AA174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AC174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AD174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AE174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AF174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
       <c r="AG174">
-        <v>0</v>
+        <v>5.7960000000000003</v>
       </c>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.3">
@@ -8362,7 +8207,7 @@
         <v>35</v>
       </c>
       <c r="B175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
@@ -8371,13 +8216,13 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>9.75</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -8463,13 +8308,13 @@
         <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="D176">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>11.25</v>
@@ -8564,22 +8409,22 @@
         <v>35</v>
       </c>
       <c r="B177" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
       </c>
       <c r="D177">
-        <v>22.400000000000002</v>
+        <v>12</v>
       </c>
       <c r="E177">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="F177">
-        <v>18.2</v>
+        <v>9.75</v>
       </c>
       <c r="G177">
-        <v>14</v>
+        <v>7.5</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -8665,22 +8510,22 @@
         <v>35</v>
       </c>
       <c r="B178" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C178" t="s">
         <v>24</v>
       </c>
       <c r="D178">
-        <v>5.6000000000000005</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="E178">
-        <v>5.25</v>
+        <v>21</v>
       </c>
       <c r="F178">
-        <v>4.55</v>
+        <v>18.2</v>
       </c>
       <c r="G178">
-        <v>3.5</v>
+        <v>14</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -8766,7 +8611,7 @@
         <v>35</v>
       </c>
       <c r="B179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C179" t="s">
         <v>24</v>
@@ -8867,22 +8712,22 @@
         <v>35</v>
       </c>
       <c r="B180" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C180" t="s">
         <v>24</v>
       </c>
       <c r="D180">
-        <v>48</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="E180">
-        <v>45</v>
+        <v>5.25</v>
       </c>
       <c r="F180">
-        <v>39</v>
+        <v>4.55</v>
       </c>
       <c r="G180">
-        <v>30</v>
+        <v>3.5</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -8968,22 +8813,22 @@
         <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C181" t="s">
         <v>24</v>
       </c>
       <c r="D181">
-        <v>4.8000000000000007</v>
+        <v>48</v>
       </c>
       <c r="E181">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="F181">
-        <v>3.9000000000000004</v>
+        <v>39</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -9069,22 +8914,22 @@
         <v>35</v>
       </c>
       <c r="B182" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C182" t="s">
         <v>24</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="G182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -9099,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -9114,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R182">
         <v>0</v>
@@ -9129,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="V182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W182">
         <v>0</v>
@@ -9144,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="AA182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB182">
         <v>0</v>
@@ -9159,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="AF182">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG182">
         <v>0</v>
@@ -9170,7 +9015,7 @@
         <v>35</v>
       </c>
       <c r="B183" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
@@ -9185,85 +9030,85 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE183">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG183">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.3">
@@ -9271,7 +9116,7 @@
         <v>35</v>
       </c>
       <c r="B184" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C184" t="s">
         <v>24</v>
@@ -9289,191 +9134,191 @@
         <v>0</v>
       </c>
       <c r="H184">
+        <v>4</v>
+      </c>
+      <c r="I184">
+        <v>4</v>
+      </c>
+      <c r="J184">
+        <v>4</v>
+      </c>
+      <c r="K184">
+        <v>4</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>4</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184">
+        <v>4</v>
+      </c>
+      <c r="P184">
+        <v>4</v>
+      </c>
+      <c r="Q184">
+        <v>4</v>
+      </c>
+      <c r="R184">
+        <v>4</v>
+      </c>
+      <c r="S184">
+        <v>4</v>
+      </c>
+      <c r="T184">
+        <v>4</v>
+      </c>
+      <c r="U184">
+        <v>4</v>
+      </c>
+      <c r="V184">
+        <v>4</v>
+      </c>
+      <c r="W184">
+        <v>4</v>
+      </c>
+      <c r="X184">
+        <v>4</v>
+      </c>
+      <c r="Y184">
+        <v>4</v>
+      </c>
+      <c r="Z184">
+        <v>4</v>
+      </c>
+      <c r="AA184">
+        <v>4</v>
+      </c>
+      <c r="AB184">
+        <v>4</v>
+      </c>
+      <c r="AC184">
+        <v>4</v>
+      </c>
+      <c r="AD184">
+        <v>4</v>
+      </c>
+      <c r="AE184">
+        <v>4</v>
+      </c>
+      <c r="AF184">
+        <v>4</v>
+      </c>
+      <c r="AG184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>35</v>
+      </c>
+      <c r="B185" t="s">
+        <v>111</v>
+      </c>
+      <c r="C185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
         <v>3</v>
       </c>
-      <c r="I184">
+      <c r="I185">
         <v>3</v>
       </c>
-      <c r="J184">
+      <c r="J185">
         <v>3</v>
       </c>
-      <c r="K184">
+      <c r="K185">
         <v>3</v>
       </c>
-      <c r="L184">
+      <c r="L185">
         <v>3</v>
       </c>
-      <c r="M184">
+      <c r="M185">
         <v>3</v>
       </c>
-      <c r="N184">
+      <c r="N185">
         <v>3</v>
       </c>
-      <c r="O184">
+      <c r="O185">
         <v>3</v>
       </c>
-      <c r="P184">
+      <c r="P185">
         <v>3</v>
       </c>
-      <c r="Q184">
+      <c r="Q185">
         <v>3</v>
       </c>
-      <c r="R184">
+      <c r="R185">
         <v>3</v>
       </c>
-      <c r="S184">
+      <c r="S185">
         <v>3</v>
       </c>
-      <c r="T184">
+      <c r="T185">
         <v>3</v>
       </c>
-      <c r="U184">
+      <c r="U185">
         <v>3</v>
       </c>
-      <c r="V184">
+      <c r="V185">
         <v>3</v>
       </c>
-      <c r="W184">
+      <c r="W185">
         <v>3</v>
       </c>
-      <c r="X184">
+      <c r="X185">
         <v>3</v>
       </c>
-      <c r="Y184">
+      <c r="Y185">
         <v>3</v>
       </c>
-      <c r="Z184">
+      <c r="Z185">
         <v>3</v>
       </c>
-      <c r="AA184">
+      <c r="AA185">
         <v>3</v>
       </c>
-      <c r="AB184">
+      <c r="AB185">
         <v>3</v>
       </c>
-      <c r="AC184">
+      <c r="AC185">
         <v>3</v>
       </c>
-      <c r="AD184">
+      <c r="AD185">
         <v>3</v>
       </c>
-      <c r="AE184">
+      <c r="AE185">
         <v>3</v>
       </c>
-      <c r="AF184">
+      <c r="AF185">
         <v>3</v>
       </c>
-      <c r="AG184">
+      <c r="AG185">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>88</v>
-      </c>
-      <c r="C186" t="s">
-        <v>112</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>94.5</v>
-      </c>
-      <c r="H186">
-        <v>118.125</v>
-      </c>
-      <c r="I186">
-        <v>141.75</v>
-      </c>
-      <c r="J186">
-        <v>165.375</v>
-      </c>
-      <c r="K186">
-        <v>189</v>
-      </c>
-      <c r="L186">
-        <v>212.625</v>
-      </c>
-      <c r="M186">
-        <v>236.25</v>
-      </c>
-      <c r="N186">
-        <v>259.875</v>
-      </c>
-      <c r="O186">
-        <v>307.125</v>
-      </c>
-      <c r="P186">
-        <v>354.375</v>
-      </c>
-      <c r="Q186">
-        <v>401.625</v>
-      </c>
-      <c r="R186">
-        <v>448.875</v>
-      </c>
-      <c r="S186">
-        <v>496.125</v>
-      </c>
-      <c r="T186">
-        <v>543.375</v>
-      </c>
-      <c r="U186">
-        <v>519.75</v>
-      </c>
-      <c r="V186">
-        <v>496.125</v>
-      </c>
-      <c r="W186">
-        <v>472.5</v>
-      </c>
-      <c r="X186">
-        <v>448.875</v>
-      </c>
-      <c r="Y186">
-        <v>425.25</v>
-      </c>
-      <c r="Z186">
-        <v>401.625</v>
-      </c>
-      <c r="AA186">
-        <v>363.82500000000005</v>
-      </c>
-      <c r="AB186">
-        <v>326.02500000000003</v>
-      </c>
-      <c r="AC186">
-        <v>288.22500000000002</v>
-      </c>
-      <c r="AD186">
-        <v>250.42500000000004</v>
-      </c>
-      <c r="AE186">
-        <v>226.80000000000004</v>
-      </c>
-      <c r="AF186">
-        <v>203.17500000000004</v>
-      </c>
-      <c r="AG186">
-        <v>179.55000000000004</v>
-      </c>
-    </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>119</v>
-      </c>
-      <c r="B187" t="s">
-        <v>89</v>
       </c>
       <c r="C187" t="s">
         <v>112</v>
@@ -9488,85 +9333,85 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="H187">
-        <v>366.13866314846564</v>
+        <v>118.125</v>
       </c>
       <c r="I187">
-        <v>549.20799472269846</v>
+        <v>141.75</v>
       </c>
       <c r="J187">
-        <v>549.20799472269846</v>
+        <v>165.375</v>
       </c>
       <c r="K187">
-        <v>549.20799472269846</v>
+        <v>189</v>
       </c>
       <c r="L187">
-        <v>732.27732629693128</v>
+        <v>212.625</v>
       </c>
       <c r="M187">
-        <v>732.27732629693128</v>
+        <v>236.25</v>
       </c>
       <c r="N187">
-        <v>732.27732629693128</v>
+        <v>259.875</v>
       </c>
       <c r="O187">
-        <v>732.27732629693128</v>
+        <v>307.125</v>
       </c>
       <c r="P187">
-        <v>866.55445126487166</v>
+        <v>354.375</v>
       </c>
       <c r="Q187">
-        <v>866.55445126487166</v>
+        <v>401.625</v>
       </c>
       <c r="R187">
-        <v>1000.8315762328122</v>
+        <v>448.875</v>
       </c>
       <c r="S187">
-        <v>1002.1065744316124</v>
+        <v>496.125</v>
       </c>
       <c r="T187">
-        <v>1003.3815726304125</v>
+        <v>543.375</v>
       </c>
       <c r="U187">
-        <v>1004.6565708292128</v>
+        <v>519.75</v>
       </c>
       <c r="V187">
-        <v>1005.9315690280127</v>
+        <v>496.125</v>
       </c>
       <c r="W187">
-        <v>1007.206567226813</v>
+        <v>472.5</v>
       </c>
       <c r="X187">
-        <v>1008.4815654256133</v>
+        <v>448.875</v>
       </c>
       <c r="Y187">
-        <v>1009.7565636244134</v>
+        <v>425.25</v>
       </c>
       <c r="Z187">
-        <v>1011.0315618232135</v>
+        <v>401.625</v>
       </c>
       <c r="AA187">
-        <v>1012.3065600220139</v>
+        <v>363.82500000000005</v>
       </c>
       <c r="AB187">
-        <v>1013.581558220814</v>
+        <v>326.02500000000003</v>
       </c>
       <c r="AC187">
-        <v>1014.8565564196142</v>
+        <v>288.22500000000002</v>
       </c>
       <c r="AD187">
-        <v>1016.1315546184143</v>
+        <v>250.42500000000004</v>
       </c>
       <c r="AE187">
-        <v>1017.4065528172146</v>
+        <v>226.80000000000004</v>
       </c>
       <c r="AF187">
-        <v>1018.6815510160146</v>
+        <v>203.17500000000004</v>
       </c>
       <c r="AG187">
-        <v>1019.9565492148149</v>
+        <v>179.55000000000004</v>
       </c>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.3">
@@ -9574,100 +9419,100 @@
         <v>119</v>
       </c>
       <c r="B188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C188" t="s">
         <v>112</v>
       </c>
       <c r="D188">
-        <v>10080</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>8190</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>366.13866314846564</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>549.20799472269846</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>549.20799472269846</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>549.20799472269846</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>732.27732629693128</v>
       </c>
       <c r="M188">
-        <v>0</v>
+        <v>732.27732629693128</v>
       </c>
       <c r="N188">
-        <v>0</v>
+        <v>732.27732629693128</v>
       </c>
       <c r="O188">
-        <v>0</v>
+        <v>732.27732629693128</v>
       </c>
       <c r="P188">
-        <v>0</v>
+        <v>866.55445126487166</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>866.55445126487166</v>
       </c>
       <c r="R188">
-        <v>0</v>
+        <v>1000.8315762328122</v>
       </c>
       <c r="S188">
-        <v>0</v>
+        <v>1002.1065744316124</v>
       </c>
       <c r="T188">
-        <v>0</v>
+        <v>1003.3815726304125</v>
       </c>
       <c r="U188">
-        <v>0</v>
+        <v>1004.6565708292128</v>
       </c>
       <c r="V188">
-        <v>0</v>
+        <v>1005.9315690280127</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>1007.206567226813</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>1008.4815654256133</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>1009.7565636244134</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1011.0315618232135</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>1012.3065600220139</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>1013.581558220814</v>
       </c>
       <c r="AC188">
-        <v>0</v>
+        <v>1014.8565564196142</v>
       </c>
       <c r="AD188">
-        <v>0</v>
+        <v>1016.1315546184143</v>
       </c>
       <c r="AE188">
-        <v>0</v>
+        <v>1017.4065528172146</v>
       </c>
       <c r="AF188">
-        <v>0</v>
+        <v>1018.6815510160146</v>
       </c>
       <c r="AG188">
-        <v>0</v>
+        <v>1019.9565492148149</v>
       </c>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.3">
@@ -9675,99 +9520,200 @@
         <v>119</v>
       </c>
       <c r="B189" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C189" t="s">
         <v>112</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>10080</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>9450</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>8190</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+      <c r="V189">
+        <v>0</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>0</v>
+      </c>
+      <c r="AC189">
+        <v>0</v>
+      </c>
+      <c r="AD189">
+        <v>0</v>
+      </c>
+      <c r="AE189">
+        <v>0</v>
+      </c>
+      <c r="AF189">
+        <v>0</v>
+      </c>
+      <c r="AG189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>119</v>
+      </c>
+      <c r="B190" t="s">
+        <v>91</v>
+      </c>
+      <c r="C190" t="s">
+        <v>112</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
         <v>168</v>
       </c>
-      <c r="I189">
+      <c r="I190">
         <v>168</v>
       </c>
-      <c r="J189">
+      <c r="J190">
         <v>168</v>
       </c>
-      <c r="K189">
+      <c r="K190">
         <v>168</v>
       </c>
-      <c r="L189">
+      <c r="L190">
         <v>168</v>
       </c>
-      <c r="M189">
+      <c r="M190">
         <v>168</v>
       </c>
-      <c r="N189">
+      <c r="N190">
         <v>168</v>
       </c>
-      <c r="O189">
+      <c r="O190">
         <v>168</v>
       </c>
-      <c r="P189">
+      <c r="P190">
         <v>168</v>
       </c>
-      <c r="Q189">
+      <c r="Q190">
         <v>168</v>
       </c>
-      <c r="R189">
+      <c r="R190">
         <v>168</v>
       </c>
-      <c r="S189">
+      <c r="S190">
         <v>168</v>
       </c>
-      <c r="T189">
+      <c r="T190">
         <v>168</v>
       </c>
-      <c r="U189">
+      <c r="U190">
         <v>168</v>
       </c>
-      <c r="V189">
+      <c r="V190">
         <v>168</v>
       </c>
-      <c r="W189">
+      <c r="W190">
         <v>168</v>
       </c>
-      <c r="X189">
+      <c r="X190">
         <v>168</v>
       </c>
-      <c r="Y189">
+      <c r="Y190">
         <v>168</v>
       </c>
-      <c r="Z189">
+      <c r="Z190">
         <v>168</v>
       </c>
-      <c r="AA189">
+      <c r="AA190">
         <v>168</v>
       </c>
-      <c r="AB189">
+      <c r="AB190">
         <v>168</v>
       </c>
-      <c r="AC189">
+      <c r="AC190">
         <v>168</v>
       </c>
-      <c r="AD189">
+      <c r="AD190">
         <v>168</v>
       </c>
-      <c r="AE189">
+      <c r="AE190">
         <v>168</v>
       </c>
-      <c r="AF189">
+      <c r="AF190">
         <v>168</v>
       </c>
-      <c r="AG189">
+      <c r="AG190">
         <v>168</v>
       </c>
     </row>
